--- a/task4.xlsx
+++ b/task4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hkustconnect-my.sharepoint.com/personal/klibw_connect_ust_hk/Documents/ISDN2601/25-fall-isdn2601-lab1-koilkl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="8_{360C2DBD-C10B-7B4E-8793-58C04DC7289E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D569427-0F3B-9B4D-9795-10C97B3EB3C0}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="8_{360C2DBD-C10B-7B4E-8793-58C04DC7289E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4263EDCB-3491-F749-A3AD-70506297C994}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="29400" windowHeight="18460" xr2:uid="{6C6688F9-C3F7-1E4D-AAA1-C72FD1861B79}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="17200" xr2:uid="{6C6688F9-C3F7-1E4D-AAA1-C72FD1861B79}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -968,769 +968,769 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>0</c:v>
+                  <c:v>-760.73</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>-71.72</c:v>
+                  <c:v>-1296.6300000000001</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>-207.91</c:v>
+                  <c:v>-1407.84</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>-348.13</c:v>
+                  <c:v>-1430.4</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>-466.59</c:v>
+                  <c:v>-1436.04</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>-510.11</c:v>
+                  <c:v>-1436.85</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>-517.36</c:v>
+                  <c:v>-1442.49</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>-520.59</c:v>
+                  <c:v>-1445.71</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>-527.03</c:v>
+                  <c:v>-1449.74</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>-527.03</c:v>
+                  <c:v>-1452.16</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>-526.23</c:v>
+                  <c:v>-1454.58</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>-528.64</c:v>
+                  <c:v>-1457</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>-528.64</c:v>
+                  <c:v>-1461.83</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>-528.64</c:v>
+                  <c:v>-1465.86</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>-525.41999999999996</c:v>
+                  <c:v>-1466.67</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>-528.64</c:v>
+                  <c:v>-1470.7</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>-528.64</c:v>
+                  <c:v>-1477.95</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>-528.64</c:v>
+                  <c:v>-1479.56</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>-532.66999999999996</c:v>
+                  <c:v>-1481.17</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>-530.26</c:v>
+                  <c:v>-1485.2</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>-530.26</c:v>
+                  <c:v>-1484.4</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>-528.64</c:v>
+                  <c:v>-1487.62</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>-532.66999999999996</c:v>
+                  <c:v>-1491.65</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>-531.05999999999995</c:v>
+                  <c:v>-1494.07</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>-528.64</c:v>
+                  <c:v>-1494.87</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>-535.9</c:v>
+                  <c:v>-1501.32</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>-533.48</c:v>
+                  <c:v>-1505.35</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>-530.26</c:v>
+                  <c:v>-1506.96</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>-529.45000000000005</c:v>
+                  <c:v>-1508.57</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>-535.09</c:v>
+                  <c:v>-1508.57</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>-531.87</c:v>
+                  <c:v>-1510.18</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>-529.45000000000005</c:v>
+                  <c:v>-1513.41</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>-528.64</c:v>
+                  <c:v>-1515.82</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>-534.29</c:v>
+                  <c:v>-1519.05</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>-531.87</c:v>
+                  <c:v>-1520.66</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>-531.05999999999995</c:v>
+                  <c:v>-1525.49</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>-539.12</c:v>
+                  <c:v>-1530.33</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>-533.48</c:v>
+                  <c:v>-1528.72</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>-532.66999999999996</c:v>
+                  <c:v>-1534.36</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>-533.48</c:v>
+                  <c:v>-1531.94</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>-539.12</c:v>
+                  <c:v>-1534.36</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>-535.9</c:v>
+                  <c:v>-1538.39</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>-532.66999999999996</c:v>
+                  <c:v>-1544.03</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>-541.54</c:v>
+                  <c:v>-1544.84</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>-533.48</c:v>
+                  <c:v>-1548.06</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>-531.05999999999995</c:v>
+                  <c:v>-1549.67</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>-539.12</c:v>
+                  <c:v>-1553.7</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>-539.12</c:v>
+                  <c:v>-1555.31</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>-533.48</c:v>
+                  <c:v>-1556.12</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>-531.05999999999995</c:v>
+                  <c:v>-1560.15</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>-543.96</c:v>
+                  <c:v>-1560.15</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>-539.92999999999995</c:v>
+                  <c:v>-1562.56</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>-536.70000000000005</c:v>
+                  <c:v>-1564.98</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>-530.26</c:v>
+                  <c:v>-1567.4</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>-543.15</c:v>
+                  <c:v>-1569.01</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>-538.32000000000005</c:v>
+                  <c:v>-1573.85</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>-531.87</c:v>
+                  <c:v>-1572.23</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>-548.79</c:v>
+                  <c:v>-1577.07</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>-540.73</c:v>
+                  <c:v>-1577.07</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>-535.09</c:v>
+                  <c:v>-1581.9</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>-537.51</c:v>
+                  <c:v>-1584.32</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>-543.96</c:v>
+                  <c:v>-1585.93</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>-539.92999999999995</c:v>
+                  <c:v>-1585.93</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>-535.9</c:v>
+                  <c:v>-1588.35</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>-543.15</c:v>
+                  <c:v>-1588.35</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>-546.37</c:v>
+                  <c:v>-1593.19</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>-535.09</c:v>
+                  <c:v>-1597.22</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>-543.15</c:v>
+                  <c:v>-1598.02</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>-545.57000000000005</c:v>
+                  <c:v>-1598.83</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>-539.92999999999995</c:v>
+                  <c:v>-1601.25</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>-536.70000000000005</c:v>
+                  <c:v>-1601.25</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>-552.01</c:v>
+                  <c:v>-1606.08</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>-543.96</c:v>
+                  <c:v>-1606.89</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>-539.12</c:v>
+                  <c:v>-1609.3</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>-537.51</c:v>
+                  <c:v>-1610.92</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>-552.01</c:v>
+                  <c:v>-1615.75</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>-539.12</c:v>
+                  <c:v>-1613.33</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>-537.51</c:v>
+                  <c:v>-1616.56</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>-552.01</c:v>
+                  <c:v>-1618.97</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>-545.57000000000005</c:v>
+                  <c:v>-1622.2</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>-540.73</c:v>
+                  <c:v>-1624.62</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>-541.54</c:v>
+                  <c:v>-1627.84</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>-552.01</c:v>
+                  <c:v>-1628.64</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>-542.34</c:v>
+                  <c:v>-1628.64</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>-539.92999999999995</c:v>
+                  <c:v>-1635.09</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>-544.76</c:v>
+                  <c:v>-1638.31</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>-551.21</c:v>
+                  <c:v>-1637.51</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>-542.34</c:v>
+                  <c:v>-1637.51</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>-545.57000000000005</c:v>
+                  <c:v>-1639.12</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>-553.63</c:v>
+                  <c:v>-1640.73</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>-544.76</c:v>
+                  <c:v>-1643.15</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>-539.92999999999995</c:v>
+                  <c:v>-1646.37</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>-550.4</c:v>
+                  <c:v>-1649.6</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>-547.17999999999995</c:v>
+                  <c:v>-1655.24</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>-543.15</c:v>
+                  <c:v>-1657.66</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>-539.12</c:v>
+                  <c:v>-1660.88</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>-553.63</c:v>
+                  <c:v>-1660.07</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>-550.4</c:v>
+                  <c:v>-1663.3</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>-540.73</c:v>
+                  <c:v>-1663.3</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>-552.82000000000005</c:v>
+                  <c:v>-1664.91</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>-550.4</c:v>
+                  <c:v>-1665.71</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>-543.15</c:v>
+                  <c:v>-1667.33</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>-544.76</c:v>
+                  <c:v>-1668.94</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>-554.42999999999995</c:v>
+                  <c:v>-1673.77</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>-549.6</c:v>
+                  <c:v>-1673.77</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>-543.15</c:v>
+                  <c:v>-1678.61</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>-550.4</c:v>
+                  <c:v>-1677.8</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>-554.42999999999995</c:v>
+                  <c:v>-1681.03</c:v>
                 </c:pt>
                 <c:pt idx="365">
-                  <c:v>-546.37</c:v>
+                  <c:v>-1684.25</c:v>
                 </c:pt>
                 <c:pt idx="366">
-                  <c:v>-547.99</c:v>
+                  <c:v>-1681.83</c:v>
                 </c:pt>
                 <c:pt idx="367">
-                  <c:v>-555.24</c:v>
+                  <c:v>-1688.28</c:v>
                 </c:pt>
                 <c:pt idx="368">
-                  <c:v>-548.79</c:v>
+                  <c:v>-1689.08</c:v>
                 </c:pt>
                 <c:pt idx="369">
-                  <c:v>-542.34</c:v>
+                  <c:v>-1690.7</c:v>
                 </c:pt>
                 <c:pt idx="370">
-                  <c:v>-553.63</c:v>
+                  <c:v>-1691.5</c:v>
                 </c:pt>
                 <c:pt idx="371">
-                  <c:v>-554.42999999999995</c:v>
+                  <c:v>-1697.14</c:v>
                 </c:pt>
                 <c:pt idx="372">
-                  <c:v>-547.99</c:v>
+                  <c:v>-1694.73</c:v>
                 </c:pt>
                 <c:pt idx="373">
-                  <c:v>-543.96</c:v>
+                  <c:v>-1701.17</c:v>
                 </c:pt>
                 <c:pt idx="374">
-                  <c:v>-554.42999999999995</c:v>
+                  <c:v>-1700.37</c:v>
                 </c:pt>
                 <c:pt idx="375">
-                  <c:v>-552.01</c:v>
+                  <c:v>-1698.75</c:v>
                 </c:pt>
                 <c:pt idx="376">
-                  <c:v>-545.57000000000005</c:v>
+                  <c:v>-1702.78</c:v>
                 </c:pt>
                 <c:pt idx="377">
-                  <c:v>-554.42999999999995</c:v>
+                  <c:v>-1701.98</c:v>
                 </c:pt>
                 <c:pt idx="378">
-                  <c:v>-555.24</c:v>
+                  <c:v>-1706.01</c:v>
                 </c:pt>
                 <c:pt idx="379">
-                  <c:v>-546.37</c:v>
+                  <c:v>-1705.2</c:v>
                 </c:pt>
                 <c:pt idx="380">
-                  <c:v>-547.17999999999995</c:v>
+                  <c:v>-1713.26</c:v>
                 </c:pt>
                 <c:pt idx="381">
-                  <c:v>-556.85</c:v>
+                  <c:v>-1713.26</c:v>
                 </c:pt>
                 <c:pt idx="382">
-                  <c:v>-552.01</c:v>
+                  <c:v>-1713.26</c:v>
                 </c:pt>
                 <c:pt idx="383">
-                  <c:v>-543.96</c:v>
+                  <c:v>-1714.87</c:v>
                 </c:pt>
                 <c:pt idx="384">
-                  <c:v>-553.63</c:v>
+                  <c:v>-1715.68</c:v>
                 </c:pt>
                 <c:pt idx="385">
-                  <c:v>-556.04</c:v>
+                  <c:v>-1715.68</c:v>
                 </c:pt>
                 <c:pt idx="386">
-                  <c:v>-553.63</c:v>
+                  <c:v>-1720.51</c:v>
                 </c:pt>
                 <c:pt idx="387">
-                  <c:v>-544.76</c:v>
+                  <c:v>-1719.71</c:v>
                 </c:pt>
                 <c:pt idx="388">
-                  <c:v>-555.24</c:v>
+                  <c:v>-1720.51</c:v>
                 </c:pt>
                 <c:pt idx="389">
-                  <c:v>-554.42999999999995</c:v>
+                  <c:v>-1726.15</c:v>
                 </c:pt>
                 <c:pt idx="390">
-                  <c:v>-547.17999999999995</c:v>
+                  <c:v>-1726.15</c:v>
                 </c:pt>
                 <c:pt idx="391">
-                  <c:v>-554.42999999999995</c:v>
+                  <c:v>-1731.79</c:v>
                 </c:pt>
                 <c:pt idx="392">
-                  <c:v>-560.07000000000005</c:v>
+                  <c:v>-1732.6</c:v>
                 </c:pt>
                 <c:pt idx="393">
-                  <c:v>-552.01</c:v>
+                  <c:v>-1730.18</c:v>
                 </c:pt>
                 <c:pt idx="394">
-                  <c:v>-549.6</c:v>
+                  <c:v>-1732.6</c:v>
                 </c:pt>
                 <c:pt idx="395">
-                  <c:v>-554.42999999999995</c:v>
+                  <c:v>-1735.82</c:v>
                 </c:pt>
                 <c:pt idx="396">
-                  <c:v>-555.24</c:v>
+                  <c:v>-1740.66</c:v>
                 </c:pt>
                 <c:pt idx="397">
-                  <c:v>-547.17999999999995</c:v>
+                  <c:v>-1739.85</c:v>
                 </c:pt>
                 <c:pt idx="398">
-                  <c:v>-552.01</c:v>
+                  <c:v>-1740.66</c:v>
                 </c:pt>
                 <c:pt idx="399">
-                  <c:v>-560.07000000000005</c:v>
+                  <c:v>-1741.47</c:v>
                 </c:pt>
                 <c:pt idx="400">
-                  <c:v>-552.01</c:v>
+                  <c:v>-1742.27</c:v>
                 </c:pt>
                 <c:pt idx="401">
-                  <c:v>-551.21</c:v>
+                  <c:v>-1746.3</c:v>
                 </c:pt>
                 <c:pt idx="402">
-                  <c:v>-556.85</c:v>
+                  <c:v>-1745.49</c:v>
                 </c:pt>
                 <c:pt idx="403">
-                  <c:v>-556.04</c:v>
+                  <c:v>-1746.3</c:v>
                 </c:pt>
                 <c:pt idx="404">
-                  <c:v>-550.4</c:v>
+                  <c:v>-1751.94</c:v>
                 </c:pt>
                 <c:pt idx="405">
-                  <c:v>-554.42999999999995</c:v>
+                  <c:v>-1752.75</c:v>
                 </c:pt>
                 <c:pt idx="406">
-                  <c:v>-559.27</c:v>
+                  <c:v>-1753.55</c:v>
                 </c:pt>
                 <c:pt idx="407">
-                  <c:v>-556.85</c:v>
+                  <c:v>-1754.36</c:v>
                 </c:pt>
                 <c:pt idx="408">
-                  <c:v>-546.37</c:v>
+                  <c:v>-1756.78</c:v>
                 </c:pt>
                 <c:pt idx="409">
-                  <c:v>-559.27</c:v>
+                  <c:v>-1758.39</c:v>
                 </c:pt>
                 <c:pt idx="410">
-                  <c:v>-558.46</c:v>
+                  <c:v>-1759.19</c:v>
                 </c:pt>
                 <c:pt idx="411">
-                  <c:v>-552.82000000000005</c:v>
+                  <c:v>-1761.61</c:v>
                 </c:pt>
                 <c:pt idx="412">
-                  <c:v>-554.42999999999995</c:v>
+                  <c:v>-1760.81</c:v>
                 </c:pt>
                 <c:pt idx="413">
-                  <c:v>-556.85</c:v>
+                  <c:v>-1763.22</c:v>
                 </c:pt>
                 <c:pt idx="414">
-                  <c:v>-554.42999999999995</c:v>
+                  <c:v>-1763.22</c:v>
                 </c:pt>
                 <c:pt idx="415">
-                  <c:v>-551.21</c:v>
+                  <c:v>-1766.45</c:v>
                 </c:pt>
                 <c:pt idx="416">
-                  <c:v>-555.24</c:v>
+                  <c:v>-1766.45</c:v>
                 </c:pt>
                 <c:pt idx="417">
-                  <c:v>-563.29999999999995</c:v>
+                  <c:v>-1768.06</c:v>
                 </c:pt>
                 <c:pt idx="418">
-                  <c:v>-553.63</c:v>
+                  <c:v>-1768.06</c:v>
                 </c:pt>
                 <c:pt idx="419">
-                  <c:v>-552.82000000000005</c:v>
+                  <c:v>-1770.48</c:v>
                 </c:pt>
                 <c:pt idx="420">
-                  <c:v>-561.67999999999995</c:v>
+                  <c:v>-1770.48</c:v>
                 </c:pt>
                 <c:pt idx="421">
-                  <c:v>-554.42999999999995</c:v>
+                  <c:v>-1772.09</c:v>
                 </c:pt>
                 <c:pt idx="422">
-                  <c:v>-553.63</c:v>
+                  <c:v>-1771.28</c:v>
                 </c:pt>
                 <c:pt idx="423">
-                  <c:v>-560.07000000000005</c:v>
+                  <c:v>-1774.51</c:v>
                 </c:pt>
                 <c:pt idx="424">
-                  <c:v>-562.49</c:v>
+                  <c:v>-1775.31</c:v>
                 </c:pt>
                 <c:pt idx="425">
-                  <c:v>-552.01</c:v>
+                  <c:v>-1776.92</c:v>
                 </c:pt>
                 <c:pt idx="426">
-                  <c:v>-556.85</c:v>
+                  <c:v>-1780.15</c:v>
                 </c:pt>
                 <c:pt idx="427">
-                  <c:v>-562.49</c:v>
+                  <c:v>-1779.34</c:v>
                 </c:pt>
                 <c:pt idx="428">
-                  <c:v>-556.85</c:v>
+                  <c:v>-1781.76</c:v>
                 </c:pt>
                 <c:pt idx="429">
-                  <c:v>-554.42999999999995</c:v>
+                  <c:v>-1779.34</c:v>
                 </c:pt>
                 <c:pt idx="430">
-                  <c:v>-556.85</c:v>
+                  <c:v>-1781.76</c:v>
                 </c:pt>
                 <c:pt idx="431">
-                  <c:v>-560.07000000000005</c:v>
+                  <c:v>-1784.18</c:v>
                 </c:pt>
                 <c:pt idx="432">
-                  <c:v>-553.63</c:v>
+                  <c:v>-1781.76</c:v>
                 </c:pt>
                 <c:pt idx="433">
-                  <c:v>-558.46</c:v>
+                  <c:v>-1784.98</c:v>
                 </c:pt>
                 <c:pt idx="434">
-                  <c:v>-560.07000000000005</c:v>
+                  <c:v>-1787.4</c:v>
                 </c:pt>
                 <c:pt idx="435">
-                  <c:v>-558.46</c:v>
+                  <c:v>-1787.4</c:v>
                 </c:pt>
                 <c:pt idx="436">
-                  <c:v>-554.42999999999995</c:v>
+                  <c:v>-1789.82</c:v>
                 </c:pt>
                 <c:pt idx="437">
-                  <c:v>-557.66</c:v>
+                  <c:v>-1789.82</c:v>
                 </c:pt>
                 <c:pt idx="438">
-                  <c:v>-563.29999999999995</c:v>
+                  <c:v>-1791.43</c:v>
                 </c:pt>
                 <c:pt idx="439">
-                  <c:v>-554.42999999999995</c:v>
+                  <c:v>-1792.23</c:v>
                 </c:pt>
                 <c:pt idx="440">
-                  <c:v>-554.42999999999995</c:v>
+                  <c:v>-1789.82</c:v>
                 </c:pt>
                 <c:pt idx="441">
-                  <c:v>-562.49</c:v>
+                  <c:v>-1790.62</c:v>
                 </c:pt>
                 <c:pt idx="442">
-                  <c:v>-554.42999999999995</c:v>
+                  <c:v>-1791.43</c:v>
                 </c:pt>
                 <c:pt idx="443">
-                  <c:v>-556.04</c:v>
+                  <c:v>-1791.43</c:v>
                 </c:pt>
                 <c:pt idx="444">
-                  <c:v>-562.49</c:v>
+                  <c:v>-1792.23</c:v>
                 </c:pt>
                 <c:pt idx="445">
-                  <c:v>-564.91</c:v>
+                  <c:v>-1792.23</c:v>
                 </c:pt>
                 <c:pt idx="446">
-                  <c:v>-555.24</c:v>
+                  <c:v>-1793.85</c:v>
                 </c:pt>
                 <c:pt idx="447">
-                  <c:v>-560.07000000000005</c:v>
+                  <c:v>-1793.04</c:v>
                 </c:pt>
                 <c:pt idx="448">
-                  <c:v>-563.29999999999995</c:v>
+                  <c:v>-1793.85</c:v>
                 </c:pt>
                 <c:pt idx="449">
-                  <c:v>-560.07000000000005</c:v>
+                  <c:v>-1793.04</c:v>
                 </c:pt>
                 <c:pt idx="450">
-                  <c:v>-555.24</c:v>
+                  <c:v>-1794.65</c:v>
                 </c:pt>
                 <c:pt idx="451">
-                  <c:v>-562.49</c:v>
+                  <c:v>-1795.46</c:v>
                 </c:pt>
                 <c:pt idx="452">
-                  <c:v>-566.52</c:v>
+                  <c:v>-1794.65</c:v>
                 </c:pt>
                 <c:pt idx="453">
-                  <c:v>-554.42999999999995</c:v>
+                  <c:v>-1794.65</c:v>
                 </c:pt>
                 <c:pt idx="454">
-                  <c:v>-560.07000000000005</c:v>
+                  <c:v>-1797.07</c:v>
                 </c:pt>
                 <c:pt idx="455">
-                  <c:v>-564.91</c:v>
+                  <c:v>-1799.49</c:v>
                 </c:pt>
                 <c:pt idx="456">
-                  <c:v>-559.27</c:v>
+                  <c:v>-1797.07</c:v>
                 </c:pt>
                 <c:pt idx="457">
-                  <c:v>-556.85</c:v>
+                  <c:v>-1797.88</c:v>
                 </c:pt>
                 <c:pt idx="458">
-                  <c:v>-560.07000000000005</c:v>
+                  <c:v>-1797.07</c:v>
                 </c:pt>
                 <c:pt idx="459">
-                  <c:v>-564.91</c:v>
+                  <c:v>-1797.88</c:v>
                 </c:pt>
                 <c:pt idx="460">
-                  <c:v>-556.85</c:v>
+                  <c:v>-1801.1</c:v>
                 </c:pt>
                 <c:pt idx="461">
-                  <c:v>-562.49</c:v>
+                  <c:v>-1801.9</c:v>
                 </c:pt>
                 <c:pt idx="462">
-                  <c:v>-565.71</c:v>
+                  <c:v>-1802.71</c:v>
                 </c:pt>
                 <c:pt idx="463">
-                  <c:v>-560.07000000000005</c:v>
+                  <c:v>-1804.32</c:v>
                 </c:pt>
                 <c:pt idx="464">
-                  <c:v>-559.27</c:v>
+                  <c:v>-1803.52</c:v>
                 </c:pt>
                 <c:pt idx="465">
-                  <c:v>-564.91</c:v>
+                  <c:v>-1802.71</c:v>
                 </c:pt>
                 <c:pt idx="466">
-                  <c:v>-565.71</c:v>
+                  <c:v>-1801.9</c:v>
                 </c:pt>
                 <c:pt idx="467">
-                  <c:v>-556.85</c:v>
+                  <c:v>-1805.13</c:v>
                 </c:pt>
                 <c:pt idx="468">
-                  <c:v>-563.29999999999995</c:v>
+                  <c:v>-1805.13</c:v>
                 </c:pt>
                 <c:pt idx="469">
-                  <c:v>-564.91</c:v>
+                  <c:v>-1805.13</c:v>
                 </c:pt>
                 <c:pt idx="470">
-                  <c:v>-562.49</c:v>
+                  <c:v>-1805.93</c:v>
                 </c:pt>
                 <c:pt idx="471">
-                  <c:v>-559.27</c:v>
+                  <c:v>-1805.13</c:v>
                 </c:pt>
                 <c:pt idx="472">
-                  <c:v>-564.91</c:v>
+                  <c:v>-1805.13</c:v>
                 </c:pt>
                 <c:pt idx="473">
-                  <c:v>-564.91</c:v>
+                  <c:v>-1806.74</c:v>
                 </c:pt>
                 <c:pt idx="474">
-                  <c:v>-558.46</c:v>
+                  <c:v>-1807.55</c:v>
                 </c:pt>
                 <c:pt idx="475">
-                  <c:v>-564.91</c:v>
+                  <c:v>-1808.35</c:v>
                 </c:pt>
                 <c:pt idx="476">
-                  <c:v>-567.33000000000004</c:v>
+                  <c:v>-1809.16</c:v>
                 </c:pt>
                 <c:pt idx="477">
-                  <c:v>-561.67999999999995</c:v>
+                  <c:v>-1807.55</c:v>
                 </c:pt>
                 <c:pt idx="478">
-                  <c:v>-562.49</c:v>
+                  <c:v>-1810.77</c:v>
                 </c:pt>
                 <c:pt idx="479">
-                  <c:v>-566.52</c:v>
+                  <c:v>-1810.77</c:v>
                 </c:pt>
                 <c:pt idx="480">
-                  <c:v>-565.71</c:v>
+                  <c:v>-1809.96</c:v>
                 </c:pt>
                 <c:pt idx="481">
-                  <c:v>-560.07000000000005</c:v>
+                  <c:v>-1810.77</c:v>
                 </c:pt>
                 <c:pt idx="482">
-                  <c:v>-564.91</c:v>
+                  <c:v>-1813.19</c:v>
                 </c:pt>
                 <c:pt idx="483">
-                  <c:v>-567.33000000000004</c:v>
+                  <c:v>-1813.19</c:v>
                 </c:pt>
                 <c:pt idx="484">
-                  <c:v>-562.49</c:v>
+                  <c:v>-1813.19</c:v>
                 </c:pt>
                 <c:pt idx="485">
-                  <c:v>-560.07000000000005</c:v>
+                  <c:v>-1809.96</c:v>
                 </c:pt>
                 <c:pt idx="486">
-                  <c:v>-566.52</c:v>
+                  <c:v>-1813.19</c:v>
                 </c:pt>
                 <c:pt idx="487">
-                  <c:v>-566.52</c:v>
+                  <c:v>-1813.19</c:v>
                 </c:pt>
                 <c:pt idx="488">
-                  <c:v>-561.67999999999995</c:v>
+                  <c:v>-1815.6</c:v>
                 </c:pt>
                 <c:pt idx="489">
-                  <c:v>-564.91</c:v>
+                  <c:v>-1816.41</c:v>
                 </c:pt>
                 <c:pt idx="490">
-                  <c:v>-564.91</c:v>
+                  <c:v>-1815.6</c:v>
                 </c:pt>
                 <c:pt idx="491">
-                  <c:v>-564.91</c:v>
+                  <c:v>-1817.22</c:v>
                 </c:pt>
                 <c:pt idx="492">
-                  <c:v>-566.52</c:v>
+                  <c:v>-1813.99</c:v>
                 </c:pt>
                 <c:pt idx="493">
-                  <c:v>-564.91</c:v>
+                  <c:v>-1818.02</c:v>
                 </c:pt>
                 <c:pt idx="494">
-                  <c:v>-565.71</c:v>
+                  <c:v>-1817.22</c:v>
                 </c:pt>
                 <c:pt idx="495">
-                  <c:v>-561.67999999999995</c:v>
+                  <c:v>-1818.02</c:v>
                 </c:pt>
                 <c:pt idx="496">
-                  <c:v>-564.91</c:v>
+                  <c:v>-1818.02</c:v>
                 </c:pt>
                 <c:pt idx="497">
-                  <c:v>-566.52</c:v>
+                  <c:v>-1817.22</c:v>
                 </c:pt>
                 <c:pt idx="498">
-                  <c:v>-567.33000000000004</c:v>
+                  <c:v>-1818.02</c:v>
                 </c:pt>
                 <c:pt idx="499">
-                  <c:v>-565.71</c:v>
+                  <c:v>-1818.83</c:v>
                 </c:pt>
                 <c:pt idx="500">
-                  <c:v>-565.71</c:v>
+                  <c:v>-1817.22</c:v>
                 </c:pt>
                 <c:pt idx="501">
-                  <c:v>-567.33000000000004</c:v>
+                  <c:v>-1818.02</c:v>
                 </c:pt>
                 <c:pt idx="502">
-                  <c:v>-566.52</c:v>
+                  <c:v>-1820.44</c:v>
                 </c:pt>
                 <c:pt idx="503">
-                  <c:v>-568.13</c:v>
+                  <c:v>-1818.83</c:v>
                 </c:pt>
                 <c:pt idx="504">
-                  <c:v>-566.52</c:v>
+                  <c:v>-1818.02</c:v>
                 </c:pt>
                 <c:pt idx="505">
-                  <c:v>-565.71</c:v>
+                  <c:v>-1819.63</c:v>
                 </c:pt>
                 <c:pt idx="506">
-                  <c:v>-567.33000000000004</c:v>
+                  <c:v>-1818.83</c:v>
                 </c:pt>
                 <c:pt idx="507">
-                  <c:v>-568.94000000000005</c:v>
+                  <c:v>-1823.66</c:v>
                 </c:pt>
                 <c:pt idx="508">
-                  <c:v>-567.33000000000004</c:v>
+                  <c:v>-1819.63</c:v>
                 </c:pt>
                 <c:pt idx="509">
-                  <c:v>-567.33000000000004</c:v>
+                  <c:v>-1819.63</c:v>
                 </c:pt>
                 <c:pt idx="510">
-                  <c:v>-566.52</c:v>
+                  <c:v>-1820.44</c:v>
                 </c:pt>
                 <c:pt idx="511">
-                  <c:v>-565.71</c:v>
+                  <c:v>-1820.44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2510,772 +2510,772 @@
                   <c:v>122.93</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>-1.17</c:v>
+                  <c:v>-0.99</c:v>
                 </c:pt>
                 <c:pt idx="257">
+                  <c:v>-26.34</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>-19.23</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>-19.34</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>-19.489999999999998</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>-19.71</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>-20.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>-19.93</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>-19.93</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>-20.18</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>-20.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>-20.48</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>-20.55</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>-20.55</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>-20.73</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>-21.21</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>-21.03</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>-21.28</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>-21.17</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>-21.36</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>-21.54</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>-21.68</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>-21.9</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>-21.87</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>-22.05</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>-22.27</c:v>
+                </c:pt>
+                <c:pt idx="282">
                   <c:v>-22.38</c:v>
                 </c:pt>
-                <c:pt idx="258">
-                  <c:v>-29.6</c:v>
-                </c:pt>
-                <c:pt idx="259">
+                <c:pt idx="283">
+                  <c:v>-22.27</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>-22.71</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>-22.67</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>-23.26</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>-23.26</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>-23.22</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>-23.48</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>-23.66</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>-23.99</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>-23.85</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>-23.88</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>-23.96</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>-23.99</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>-24.91</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>-23.99</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>-25.09</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>-25.24</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>-25.49</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>-25.42</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>-25.68</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>-25.68</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>-26.04</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>-26.3</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>-26.45</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>-26.63</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>-26.89</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>-27.07</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>-27.22</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>-27.4</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>-27.58</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>-28.02</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>-27.99</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>-28.39</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>-28.32</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>-28.32</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>-28.9</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>-29.19</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>-29.19</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>-29.71</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>-30.07</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>-29.96</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>-29.96</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>-30.26</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>-30.55</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>-30.88</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>-30.99</c:v>
+                </c:pt>
+                <c:pt idx="329">
                   <c:v>-31.39</c:v>
                 </c:pt>
-                <c:pt idx="260">
-                  <c:v>-31.39</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>-31.58</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>-33.659999999999997</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>-36.26</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>-37.909999999999997</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>-41.65</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>-41.5</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>-41.83</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>-45.93</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>-44.54</c:v>
-                </c:pt>
-                <c:pt idx="270">
+                <c:pt idx="330">
+                  <c:v>-31.43</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>-31.61</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>-31.72</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>-32.270000000000003</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>-32.42</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>-32.82</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>-32.97</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>-33.22</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>-33.44</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>-33.479999999999997</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>-33.99</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>-34.1</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>-34.43</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>-34.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>-35.049999999999997</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>-35.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>-35.64</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>-35.93</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>-35.93</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>-36.479999999999997</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>-36.590000000000003</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>-36.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>-37</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>-37.44</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>-37.729999999999997</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>-38.1</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>-38.61</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>-38.68</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>-39.08</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>-39.49</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>-39.71</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>-39.520000000000003</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>-40.33</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>-40.26</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>-40.81</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>-41.14</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>-41.58</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>-41.61</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>-42.16</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>-42.56</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>-42.86</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>-43</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>-43.44</c:v>
+                </c:pt>
+                <c:pt idx="373">
                   <c:v>-43.88</c:v>
                 </c:pt>
-                <c:pt idx="271">
-                  <c:v>-47.03</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>-47.73</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>-45.71</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>-44.54</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>-49.89</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>-47.22</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>-45.64</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>-44.54</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>-50.55</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>-47.62</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>-45.97</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>-54.36</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>-50</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>-47.47</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>-45.71</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>-53.04</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>-49.08</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>-46.85</c:v>
-                </c:pt>
-                <c:pt idx="289">
+                <c:pt idx="374">
+                  <c:v>-43.92</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>-44.76</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>-44.98</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>-45.05</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>-45.49</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>-46.12</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>-46.15</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>-46.26</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>-46.96</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>-47.44</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>-47.84</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>-48.1</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>-48.42</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>-48.9</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>-49.41</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>-49.63</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>-50.22</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>-50.44</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>-50.84</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>-51.28</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>-51.76</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>-51.98</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>-52.75</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>-53.19</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>-53.74</c:v>
+                </c:pt>
+                <c:pt idx="399">
                   <c:v>-54.1</c:v>
                 </c:pt>
-                <c:pt idx="290">
-                  <c:v>-52.16</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>-48.97</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>-50.84</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>-56.81</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>-51.79</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>-48.53</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>-60.4</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>-54.87</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>-50.62</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>-47.69</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>-62.01</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>-53.48</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>-49.45</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>-65.2</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>-57.44</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>-52.53</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>-49.05</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>-62.86</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>-55.71</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>-51.17</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>-57.47</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>-62.64</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>-53.48</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>-55.02</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>-65.97</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>-57.84</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>-52.75</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>-63.88</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>-63.26</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>-55.86</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>-51.47</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>-71.61</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>-62.56</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>-53.63</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>-69.05</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>-65.53</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>-57.33</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>-52.97</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>-74.290000000000006</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>-62.53</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>-55.53</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>-62.23</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>-72.45</c:v>
-                </c:pt>
-                <c:pt idx="333">
+                <c:pt idx="400">
+                  <c:v>-54.69</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>-54.84</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>-55.93</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>-56.23</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>-56.74</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>-57.36</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>-57.91</c:v>
+                </c:pt>
+                <c:pt idx="407">
                   <c:v>-58.53</c:v>
                 </c:pt>
-                <c:pt idx="334">
-                  <c:v>-58.24</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>-78.02</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>-64.84</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>-56.92</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>-66.89</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>-73.040000000000006</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>-61.68</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>-55.13</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>-73.92</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>-71.319999999999993</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>-58.21</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>-71.25</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>-76.23</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>-63.77</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>-56.45</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>-77.88</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>-71.5</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>-61.25</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>-64.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>-83.66</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>-69.41</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>-62.53</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>-82.67</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>-73.52</c:v>
-                </c:pt>
-                <c:pt idx="358">
+                <c:pt idx="408">
+                  <c:v>-59.23</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>-59.82</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>-60.15</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>-60.81</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>-61.54</c:v>
+                </c:pt>
+                <c:pt idx="413">
                   <c:v>-62.2</c:v>
                 </c:pt>
-                <c:pt idx="359">
-                  <c:v>-70.7</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>-85.57</c:v>
-                </c:pt>
-                <c:pt idx="361">
+                <c:pt idx="414">
+                  <c:v>-63.11</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>-63.81</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>-64.47</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>-65.16</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>-66.040000000000006</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>-66.81</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>-67.8</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>-68.39</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>-69.489999999999995</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>-69.34</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>-69.3</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>-69.23</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>-69.08</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>-69.12</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>-69.010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>-69.12</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>-69.010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>-68.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>-69.010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>-68.86</c:v>
+                </c:pt>
+                <c:pt idx="434">
                   <c:v>-68.75</c:v>
                 </c:pt>
-                <c:pt idx="362">
-                  <c:v>-59.85</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>-77.069999999999993</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>-82.09</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>-67.14</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>-74.8</c:v>
-                </c:pt>
-                <c:pt idx="367">
-                  <c:v>-87.25</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>-70.22</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>-60.29</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>-80.88</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>-83.04</c:v>
-                </c:pt>
-                <c:pt idx="372">
+                <c:pt idx="435">
+                  <c:v>-68.75</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>-68.64</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>-68.64</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>-68.569999999999993</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>-68.53</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>-68.64</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>-68.61</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>-68.569999999999993</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>-68.569999999999993</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>-68.53</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>-68.53</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>-68.459999999999994</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>-68.5</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>-68.459999999999994</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>-68.5</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>-68.42</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>-68.39</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>-68.42</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>-68.42</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>-68.319999999999993</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>-68.209999999999994</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>-68.319999999999993</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>-68.28</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>-68.319999999999993</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>-68.28</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>-68.13</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>-68.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>-68.06</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>-67.989999999999995</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>-68.02</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>-68.06</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>-68.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>-67.95</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>-67.95</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>-67.95</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>-67.91</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>-67.95</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>-67.95</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>-67.88</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>-67.84</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>-67.8</c:v>
+                </c:pt>
+                <c:pt idx="476">
                   <c:v>-67.77</c:v>
                 </c:pt>
-                <c:pt idx="373">
-                  <c:v>-68.64</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>-87.25</c:v>
-                </c:pt>
-                <c:pt idx="375">
-                  <c:v>-77.510000000000005</c:v>
-                </c:pt>
-                <c:pt idx="376">
-                  <c:v>-64.87</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>-86.89</c:v>
-                </c:pt>
-                <c:pt idx="378">
-                  <c:v>-83.3</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>-68.239999999999995</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>-75.27</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>-91.72</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>-78.17</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>-65.05</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>-81.83</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>-92.53</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>-72.97</c:v>
-                </c:pt>
-                <c:pt idx="387">
-                  <c:v>-68.64</c:v>
-                </c:pt>
-                <c:pt idx="388">
-                  <c:v>-95.93</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>-78.53</c:v>
-                </c:pt>
-                <c:pt idx="390">
+                <c:pt idx="477">
+                  <c:v>-67.84</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>-67.69</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>-67.69</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>-67.73</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>-67.69</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>-67.58</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>-67.58</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>-67.58</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>-67.73</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>-67.58</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>-67.58</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>-67.47</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>-67.44</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>-67.47</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>-67.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>-67.55</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>-67.36</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>-67.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>-67.36</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>-67.36</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>-67.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>-67.36</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>-67.33</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>-67.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>-67.36</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>-67.25</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>-67.33</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>-67.36</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>-67.290000000000006</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>-67.33</c:v>
+                </c:pt>
+                <c:pt idx="507">
                   <c:v>-67.11</c:v>
                 </c:pt>
-                <c:pt idx="391">
-                  <c:v>-86.7</c:v>
-                </c:pt>
-                <c:pt idx="392">
-                  <c:v>-93.85</c:v>
-                </c:pt>
-                <c:pt idx="393">
-                  <c:v>-73.959999999999994</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>-75.459999999999994</c:v>
-                </c:pt>
-                <c:pt idx="395">
-                  <c:v>-91.94</c:v>
-                </c:pt>
-                <c:pt idx="396">
-                  <c:v>-86.04</c:v>
-                </c:pt>
-                <c:pt idx="397">
-                  <c:v>-69.739999999999995</c:v>
-                </c:pt>
-                <c:pt idx="398">
-                  <c:v>-81.790000000000006</c:v>
-                </c:pt>
-                <c:pt idx="399">
-                  <c:v>-95.86</c:v>
-                </c:pt>
-                <c:pt idx="400">
-                  <c:v>-75.02</c:v>
-                </c:pt>
-                <c:pt idx="401">
-                  <c:v>-79.819999999999993</c:v>
-                </c:pt>
-                <c:pt idx="402">
-                  <c:v>-94.84</c:v>
-                </c:pt>
-                <c:pt idx="403">
-                  <c:v>-88.64</c:v>
-                </c:pt>
-                <c:pt idx="404">
-                  <c:v>-71.209999999999994</c:v>
-                </c:pt>
-                <c:pt idx="405">
-                  <c:v>-86.19</c:v>
-                </c:pt>
-                <c:pt idx="406">
-                  <c:v>-98.72</c:v>
-                </c:pt>
-                <c:pt idx="407">
-                  <c:v>-81.540000000000006</c:v>
-                </c:pt>
-                <c:pt idx="408">
-                  <c:v>-74.209999999999994</c:v>
-                </c:pt>
-                <c:pt idx="409">
-                  <c:v>-98.24</c:v>
-                </c:pt>
-                <c:pt idx="410">
-                  <c:v>-89.52</c:v>
-                </c:pt>
-                <c:pt idx="411">
-                  <c:v>-72.2</c:v>
-                </c:pt>
-                <c:pt idx="412">
-                  <c:v>-90.26</c:v>
-                </c:pt>
-                <c:pt idx="413">
-                  <c:v>-101.54</c:v>
-                </c:pt>
-                <c:pt idx="414">
-                  <c:v>-83</c:v>
-                </c:pt>
-                <c:pt idx="415">
-                  <c:v>-79.849999999999994</c:v>
-                </c:pt>
-                <c:pt idx="416">
-                  <c:v>-95.24</c:v>
-                </c:pt>
-                <c:pt idx="417">
-                  <c:v>-99.12</c:v>
-                </c:pt>
-                <c:pt idx="418">
-                  <c:v>-77.069999999999993</c:v>
-                </c:pt>
-                <c:pt idx="419">
-                  <c:v>-85.82</c:v>
-                </c:pt>
-                <c:pt idx="420">
-                  <c:v>-105.16</c:v>
-                </c:pt>
-                <c:pt idx="421">
-                  <c:v>-81.58</c:v>
-                </c:pt>
-                <c:pt idx="422">
-                  <c:v>-86.15</c:v>
-                </c:pt>
-                <c:pt idx="423">
-                  <c:v>-99.38</c:v>
-                </c:pt>
-                <c:pt idx="424">
-                  <c:v>-97.51</c:v>
-                </c:pt>
-                <c:pt idx="425">
-                  <c:v>-76.41</c:v>
-                </c:pt>
-                <c:pt idx="426">
-                  <c:v>-91.94</c:v>
-                </c:pt>
-                <c:pt idx="427">
-                  <c:v>-102.64</c:v>
-                </c:pt>
-                <c:pt idx="428">
-                  <c:v>-89.63</c:v>
-                </c:pt>
-                <c:pt idx="429">
-                  <c:v>-81.47</c:v>
-                </c:pt>
-                <c:pt idx="430">
-                  <c:v>-96.41</c:v>
-                </c:pt>
-                <c:pt idx="431">
-                  <c:v>-94.65</c:v>
-                </c:pt>
-                <c:pt idx="432">
-                  <c:v>-82.93</c:v>
-                </c:pt>
-                <c:pt idx="433">
-                  <c:v>-97.36</c:v>
-                </c:pt>
-                <c:pt idx="434">
-                  <c:v>-105.79</c:v>
-                </c:pt>
-                <c:pt idx="435">
-                  <c:v>-88.39</c:v>
-                </c:pt>
-                <c:pt idx="436">
-                  <c:v>-89.71</c:v>
-                </c:pt>
-                <c:pt idx="437">
-                  <c:v>-100.77</c:v>
-                </c:pt>
-                <c:pt idx="438">
-                  <c:v>-106.52</c:v>
-                </c:pt>
-                <c:pt idx="439">
-                  <c:v>-81.36</c:v>
-                </c:pt>
-                <c:pt idx="440">
-                  <c:v>-94.29</c:v>
-                </c:pt>
-                <c:pt idx="441">
-                  <c:v>-110.29</c:v>
-                </c:pt>
-                <c:pt idx="442">
-                  <c:v>-84.51</c:v>
-                </c:pt>
-                <c:pt idx="443">
-                  <c:v>-96.19</c:v>
-                </c:pt>
-                <c:pt idx="444">
-                  <c:v>-105.13</c:v>
-                </c:pt>
-                <c:pt idx="445">
-                  <c:v>-101.98</c:v>
-                </c:pt>
-                <c:pt idx="446">
-                  <c:v>-87.69</c:v>
-                </c:pt>
-                <c:pt idx="447">
-                  <c:v>-100.07</c:v>
-                </c:pt>
-                <c:pt idx="448">
-                  <c:v>-108.02</c:v>
-                </c:pt>
-                <c:pt idx="449">
-                  <c:v>-93.04</c:v>
-                </c:pt>
-                <c:pt idx="450">
-                  <c:v>-92.82</c:v>
-                </c:pt>
-                <c:pt idx="451">
-                  <c:v>-103.11</c:v>
-                </c:pt>
-                <c:pt idx="452">
-                  <c:v>-101.43</c:v>
-                </c:pt>
-                <c:pt idx="453">
-                  <c:v>-93.04</c:v>
-                </c:pt>
-                <c:pt idx="454">
-                  <c:v>-103.3</c:v>
-                </c:pt>
-                <c:pt idx="455">
-                  <c:v>-110.26</c:v>
-                </c:pt>
-                <c:pt idx="456">
-                  <c:v>-93.63</c:v>
-                </c:pt>
-                <c:pt idx="457">
-                  <c:v>-97.73</c:v>
-                </c:pt>
-                <c:pt idx="458">
-                  <c:v>-106.41</c:v>
-                </c:pt>
-                <c:pt idx="459">
-                  <c:v>-112.6</c:v>
-                </c:pt>
-                <c:pt idx="460">
-                  <c:v>-88.97</c:v>
-                </c:pt>
-                <c:pt idx="461">
-                  <c:v>-101.03</c:v>
-                </c:pt>
-                <c:pt idx="462">
-                  <c:v>-113.92</c:v>
-                </c:pt>
-                <c:pt idx="463">
-                  <c:v>-91.87</c:v>
-                </c:pt>
-                <c:pt idx="464">
-                  <c:v>-103.04</c:v>
-                </c:pt>
-                <c:pt idx="465">
-                  <c:v>-109.96</c:v>
-                </c:pt>
-                <c:pt idx="466">
-                  <c:v>-112.01</c:v>
-                </c:pt>
-                <c:pt idx="467">
-                  <c:v>-97.18</c:v>
-                </c:pt>
-                <c:pt idx="468">
-                  <c:v>-106.34</c:v>
-                </c:pt>
-                <c:pt idx="469">
-                  <c:v>-112.42</c:v>
-                </c:pt>
-                <c:pt idx="470">
-                  <c:v>-100.26</c:v>
-                </c:pt>
-                <c:pt idx="471">
-                  <c:v>-101.06</c:v>
-                </c:pt>
-                <c:pt idx="472">
-                  <c:v>-114.4</c:v>
-                </c:pt>
-                <c:pt idx="473">
-                  <c:v>-106.19</c:v>
-                </c:pt>
-                <c:pt idx="474">
-                  <c:v>-103</c:v>
-                </c:pt>
-                <c:pt idx="475">
-                  <c:v>-110.29</c:v>
-                </c:pt>
-                <c:pt idx="476">
-                  <c:v>-115.49</c:v>
-                </c:pt>
-                <c:pt idx="477">
-                  <c:v>-97.22</c:v>
-                </c:pt>
-                <c:pt idx="478">
-                  <c:v>-106.56</c:v>
-                </c:pt>
-                <c:pt idx="479">
-                  <c:v>-112.38</c:v>
-                </c:pt>
-                <c:pt idx="480">
-                  <c:v>-117.03</c:v>
-                </c:pt>
-                <c:pt idx="481">
-                  <c:v>-101.1</c:v>
-                </c:pt>
-                <c:pt idx="482">
-                  <c:v>-114.18</c:v>
-                </c:pt>
-                <c:pt idx="483">
-                  <c:v>-117.8</c:v>
-                </c:pt>
-                <c:pt idx="484">
-                  <c:v>-102.34</c:v>
-                </c:pt>
-                <c:pt idx="485">
-                  <c:v>-110.18</c:v>
-                </c:pt>
-                <c:pt idx="486">
-                  <c:v>-115.31</c:v>
-                </c:pt>
-                <c:pt idx="487">
-                  <c:v>-118.97</c:v>
-                </c:pt>
-                <c:pt idx="488">
-                  <c:v>-106.92</c:v>
-                </c:pt>
-                <c:pt idx="489">
-                  <c:v>-112.97</c:v>
-                </c:pt>
-                <c:pt idx="490">
-                  <c:v>-117.14</c:v>
-                </c:pt>
-                <c:pt idx="491">
-                  <c:v>-109.78</c:v>
-                </c:pt>
-                <c:pt idx="492">
-                  <c:v>-114.95</c:v>
-                </c:pt>
-                <c:pt idx="493">
-                  <c:v>-118.72</c:v>
-                </c:pt>
-                <c:pt idx="494">
-                  <c:v>-121.14</c:v>
-                </c:pt>
-                <c:pt idx="495">
-                  <c:v>-111.72</c:v>
-                </c:pt>
-                <c:pt idx="496">
-                  <c:v>-116.7</c:v>
-                </c:pt>
-                <c:pt idx="497">
-                  <c:v>-119.56</c:v>
-                </c:pt>
-                <c:pt idx="498">
-                  <c:v>-109.41</c:v>
-                </c:pt>
-                <c:pt idx="499">
-                  <c:v>-114.58</c:v>
-                </c:pt>
-                <c:pt idx="500">
-                  <c:v>-118.39</c:v>
-                </c:pt>
-                <c:pt idx="501">
-                  <c:v>-121.06</c:v>
-                </c:pt>
-                <c:pt idx="502">
-                  <c:v>-118.42</c:v>
-                </c:pt>
-                <c:pt idx="503">
-                  <c:v>-120.66</c:v>
-                </c:pt>
-                <c:pt idx="504">
-                  <c:v>-122.49</c:v>
-                </c:pt>
-                <c:pt idx="505">
-                  <c:v>-115.38</c:v>
-                </c:pt>
-                <c:pt idx="506">
-                  <c:v>-119.01</c:v>
-                </c:pt>
-                <c:pt idx="507">
-                  <c:v>-121.32</c:v>
-                </c:pt>
                 <c:pt idx="508">
-                  <c:v>-122.56</c:v>
+                  <c:v>-67.290000000000006</c:v>
                 </c:pt>
                 <c:pt idx="509">
-                  <c:v>-118.86</c:v>
+                  <c:v>-67.290000000000006</c:v>
                 </c:pt>
                 <c:pt idx="510">
-                  <c:v>-121.36</c:v>
+                  <c:v>-67.25</c:v>
                 </c:pt>
                 <c:pt idx="511">
-                  <c:v>-122.93</c:v>
+                  <c:v>-67.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8054,6 +8054,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -8373,8 +8377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D431DF-0946-C44D-BE53-BAAE18C008FD}">
   <dimension ref="A1:N512"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BB29" sqref="BB29"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="57" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14016,7 +14020,7 @@
         <v>0</v>
       </c>
       <c r="B257">
-        <v>-1.17</v>
+        <v>-0.99</v>
       </c>
       <c r="M257">
         <v>0</v>
@@ -14027,10 +14031,10 @@
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A258">
-        <v>0</v>
+        <v>-760.73</v>
       </c>
       <c r="B258">
-        <v>-22.38</v>
+        <v>-26.34</v>
       </c>
       <c r="M258">
         <v>-0.01</v>
@@ -14041,10 +14045,10 @@
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A259">
-        <v>-71.72</v>
+        <v>-1296.6300000000001</v>
       </c>
       <c r="B259">
-        <v>-29.6</v>
+        <v>-19.23</v>
       </c>
       <c r="M259">
         <v>-0.01</v>
@@ -14055,10 +14059,10 @@
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A260">
-        <v>-207.91</v>
+        <v>-1407.84</v>
       </c>
       <c r="B260">
-        <v>-31.39</v>
+        <v>-19.34</v>
       </c>
       <c r="M260">
         <v>-0.01</v>
@@ -14069,10 +14073,10 @@
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A261">
-        <v>-348.13</v>
+        <v>-1430.4</v>
       </c>
       <c r="B261">
-        <v>-31.39</v>
+        <v>-19.489999999999998</v>
       </c>
       <c r="M261">
         <v>-0.01</v>
@@ -14083,10 +14087,10 @@
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A262">
-        <v>-466.59</v>
+        <v>-1436.04</v>
       </c>
       <c r="B262">
-        <v>-31.58</v>
+        <v>-19.71</v>
       </c>
       <c r="M262">
         <v>-0.01</v>
@@ -14097,10 +14101,10 @@
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A263">
-        <v>-510.11</v>
+        <v>-1436.85</v>
       </c>
       <c r="B263">
-        <v>-33.659999999999997</v>
+        <v>-20.149999999999999</v>
       </c>
       <c r="M263">
         <v>-0.01</v>
@@ -14111,10 +14115,10 @@
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A264">
-        <v>-517.36</v>
+        <v>-1442.49</v>
       </c>
       <c r="B264">
-        <v>-36.26</v>
+        <v>-19.93</v>
       </c>
       <c r="M264">
         <v>-0.01</v>
@@ -14125,10 +14129,10 @@
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A265">
-        <v>-520.59</v>
+        <v>-1445.71</v>
       </c>
       <c r="B265">
-        <v>-37.909999999999997</v>
+        <v>-19.93</v>
       </c>
       <c r="M265">
         <v>-0.01</v>
@@ -14139,10 +14143,10 @@
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A266">
-        <v>-527.03</v>
+        <v>-1449.74</v>
       </c>
       <c r="B266">
-        <v>-41.65</v>
+        <v>-20.18</v>
       </c>
       <c r="M266">
         <v>-0.01</v>
@@ -14153,10 +14157,10 @@
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A267">
-        <v>-527.03</v>
+        <v>-1452.16</v>
       </c>
       <c r="B267">
-        <v>-41.5</v>
+        <v>-20.149999999999999</v>
       </c>
       <c r="M267">
         <v>-0.01</v>
@@ -14167,10 +14171,10 @@
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A268">
-        <v>-526.23</v>
+        <v>-1454.58</v>
       </c>
       <c r="B268">
-        <v>-41.83</v>
+        <v>-20.48</v>
       </c>
       <c r="M268">
         <v>-0.01</v>
@@ -14181,10 +14185,10 @@
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A269">
-        <v>-528.64</v>
+        <v>-1457</v>
       </c>
       <c r="B269">
-        <v>-45.93</v>
+        <v>-20.55</v>
       </c>
       <c r="M269">
         <v>-0.01</v>
@@ -14195,10 +14199,10 @@
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A270">
-        <v>-528.64</v>
+        <v>-1461.83</v>
       </c>
       <c r="B270">
-        <v>-44.54</v>
+        <v>-20.55</v>
       </c>
       <c r="M270">
         <v>-0.01</v>
@@ -14209,10 +14213,10 @@
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A271">
-        <v>-528.64</v>
+        <v>-1465.86</v>
       </c>
       <c r="B271">
-        <v>-43.88</v>
+        <v>-20.73</v>
       </c>
       <c r="M271">
         <v>-0.02</v>
@@ -14223,10 +14227,10 @@
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A272">
-        <v>-525.41999999999996</v>
+        <v>-1466.67</v>
       </c>
       <c r="B272">
-        <v>-47.03</v>
+        <v>-21.21</v>
       </c>
       <c r="M272">
         <v>-0.01</v>
@@ -14237,10 +14241,10 @@
     </row>
     <row r="273" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A273">
-        <v>-528.64</v>
+        <v>-1470.7</v>
       </c>
       <c r="B273">
-        <v>-47.73</v>
+        <v>-21.03</v>
       </c>
       <c r="M273">
         <v>-0.01</v>
@@ -14251,10 +14255,10 @@
     </row>
     <row r="274" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A274">
-        <v>-528.64</v>
+        <v>-1477.95</v>
       </c>
       <c r="B274">
-        <v>-45.71</v>
+        <v>-21.28</v>
       </c>
       <c r="M274">
         <v>-0.01</v>
@@ -14265,10 +14269,10 @@
     </row>
     <row r="275" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A275">
-        <v>-528.64</v>
+        <v>-1479.56</v>
       </c>
       <c r="B275">
-        <v>-44.54</v>
+        <v>-21.17</v>
       </c>
       <c r="M275">
         <v>-0.01</v>
@@ -14279,10 +14283,10 @@
     </row>
     <row r="276" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A276">
-        <v>-532.66999999999996</v>
+        <v>-1481.17</v>
       </c>
       <c r="B276">
-        <v>-49.89</v>
+        <v>-21.36</v>
       </c>
       <c r="M276">
         <v>-0.01</v>
@@ -14293,10 +14297,10 @@
     </row>
     <row r="277" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A277">
-        <v>-530.26</v>
+        <v>-1485.2</v>
       </c>
       <c r="B277">
-        <v>-47.22</v>
+        <v>-21.54</v>
       </c>
       <c r="M277">
         <v>-0.01</v>
@@ -14307,10 +14311,10 @@
     </row>
     <row r="278" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A278">
-        <v>-530.26</v>
+        <v>-1484.4</v>
       </c>
       <c r="B278">
-        <v>-45.64</v>
+        <v>-21.68</v>
       </c>
       <c r="M278">
         <v>-0.02</v>
@@ -14321,10 +14325,10 @@
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A279">
-        <v>-528.64</v>
+        <v>-1487.62</v>
       </c>
       <c r="B279">
-        <v>-44.54</v>
+        <v>-21.9</v>
       </c>
       <c r="M279">
         <v>-0.01</v>
@@ -14335,10 +14339,10 @@
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A280">
-        <v>-532.66999999999996</v>
+        <v>-1491.65</v>
       </c>
       <c r="B280">
-        <v>-50.55</v>
+        <v>-21.87</v>
       </c>
       <c r="M280">
         <v>-0.01</v>
@@ -14349,10 +14353,10 @@
     </row>
     <row r="281" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A281">
-        <v>-531.05999999999995</v>
+        <v>-1494.07</v>
       </c>
       <c r="B281">
-        <v>-47.62</v>
+        <v>-22.05</v>
       </c>
       <c r="M281">
         <v>-0.02</v>
@@ -14363,10 +14367,10 @@
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A282">
-        <v>-528.64</v>
+        <v>-1494.87</v>
       </c>
       <c r="B282">
-        <v>-45.97</v>
+        <v>-22.27</v>
       </c>
       <c r="M282">
         <v>-0.01</v>
@@ -14377,10 +14381,10 @@
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A283">
-        <v>-535.9</v>
+        <v>-1501.32</v>
       </c>
       <c r="B283">
-        <v>-54.36</v>
+        <v>-22.38</v>
       </c>
       <c r="M283">
         <v>-0.01</v>
@@ -14391,10 +14395,10 @@
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A284">
-        <v>-533.48</v>
+        <v>-1505.35</v>
       </c>
       <c r="B284">
-        <v>-50</v>
+        <v>-22.27</v>
       </c>
       <c r="M284">
         <v>-0.02</v>
@@ -14405,10 +14409,10 @@
     </row>
     <row r="285" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A285">
-        <v>-530.26</v>
+        <v>-1506.96</v>
       </c>
       <c r="B285">
-        <v>-47.47</v>
+        <v>-22.71</v>
       </c>
       <c r="M285">
         <v>-0.01</v>
@@ -14419,10 +14423,10 @@
     </row>
     <row r="286" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A286">
-        <v>-529.45000000000005</v>
+        <v>-1508.57</v>
       </c>
       <c r="B286">
-        <v>-45.71</v>
+        <v>-22.67</v>
       </c>
       <c r="M286">
         <v>-0.01</v>
@@ -14433,10 +14437,10 @@
     </row>
     <row r="287" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A287">
-        <v>-535.09</v>
+        <v>-1508.57</v>
       </c>
       <c r="B287">
-        <v>-53.04</v>
+        <v>-23.26</v>
       </c>
       <c r="M287">
         <v>-0.02</v>
@@ -14447,10 +14451,10 @@
     </row>
     <row r="288" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A288">
-        <v>-531.87</v>
+        <v>-1510.18</v>
       </c>
       <c r="B288">
-        <v>-49.08</v>
+        <v>-23.26</v>
       </c>
       <c r="M288">
         <v>-0.02</v>
@@ -14461,10 +14465,10 @@
     </row>
     <row r="289" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A289">
-        <v>-529.45000000000005</v>
+        <v>-1513.41</v>
       </c>
       <c r="B289">
-        <v>-46.85</v>
+        <v>-23.22</v>
       </c>
       <c r="M289">
         <v>-0.01</v>
@@ -14475,10 +14479,10 @@
     </row>
     <row r="290" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A290">
-        <v>-528.64</v>
+        <v>-1515.82</v>
       </c>
       <c r="B290">
-        <v>-54.1</v>
+        <v>-23.48</v>
       </c>
       <c r="M290">
         <v>-0.03</v>
@@ -14489,10 +14493,10 @@
     </row>
     <row r="291" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A291">
-        <v>-534.29</v>
+        <v>-1519.05</v>
       </c>
       <c r="B291">
-        <v>-52.16</v>
+        <v>-23.66</v>
       </c>
       <c r="M291">
         <v>-0.02</v>
@@ -14503,10 +14507,10 @@
     </row>
     <row r="292" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A292">
-        <v>-531.87</v>
+        <v>-1520.66</v>
       </c>
       <c r="B292">
-        <v>-48.97</v>
+        <v>-23.99</v>
       </c>
       <c r="M292">
         <v>-0.01</v>
@@ -14517,10 +14521,10 @@
     </row>
     <row r="293" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A293">
-        <v>-531.05999999999995</v>
+        <v>-1525.49</v>
       </c>
       <c r="B293">
-        <v>-50.84</v>
+        <v>-23.85</v>
       </c>
       <c r="M293">
         <v>-0.02</v>
@@ -14531,10 +14535,10 @@
     </row>
     <row r="294" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A294">
-        <v>-539.12</v>
+        <v>-1530.33</v>
       </c>
       <c r="B294">
-        <v>-56.81</v>
+        <v>-23.88</v>
       </c>
       <c r="M294">
         <v>-0.02</v>
@@ -14545,10 +14549,10 @@
     </row>
     <row r="295" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A295">
-        <v>-533.48</v>
+        <v>-1528.72</v>
       </c>
       <c r="B295">
-        <v>-51.79</v>
+        <v>-23.96</v>
       </c>
       <c r="M295">
         <v>-0.01</v>
@@ -14559,10 +14563,10 @@
     </row>
     <row r="296" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A296">
-        <v>-532.66999999999996</v>
+        <v>-1534.36</v>
       </c>
       <c r="B296">
-        <v>-48.53</v>
+        <v>-23.99</v>
       </c>
       <c r="M296">
         <v>-0.01</v>
@@ -14573,10 +14577,10 @@
     </row>
     <row r="297" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A297">
-        <v>-533.48</v>
+        <v>-1531.94</v>
       </c>
       <c r="B297">
-        <v>-60.4</v>
+        <v>-24.91</v>
       </c>
       <c r="M297">
         <v>-0.02</v>
@@ -14587,10 +14591,10 @@
     </row>
     <row r="298" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A298">
-        <v>-539.12</v>
+        <v>-1534.36</v>
       </c>
       <c r="B298">
-        <v>-54.87</v>
+        <v>-23.99</v>
       </c>
       <c r="M298">
         <v>-0.02</v>
@@ -14601,10 +14605,10 @@
     </row>
     <row r="299" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A299">
-        <v>-535.9</v>
+        <v>-1538.39</v>
       </c>
       <c r="B299">
-        <v>-50.62</v>
+        <v>-25.09</v>
       </c>
       <c r="M299">
         <v>-0.02</v>
@@ -14615,10 +14619,10 @@
     </row>
     <row r="300" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A300">
-        <v>-532.66999999999996</v>
+        <v>-1544.03</v>
       </c>
       <c r="B300">
-        <v>-47.69</v>
+        <v>-25.24</v>
       </c>
       <c r="M300">
         <v>-0.03</v>
@@ -14629,10 +14633,10 @@
     </row>
     <row r="301" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A301">
-        <v>-541.54</v>
+        <v>-1544.84</v>
       </c>
       <c r="B301">
-        <v>-62.01</v>
+        <v>-25.49</v>
       </c>
       <c r="M301">
         <v>-0.02</v>
@@ -14643,10 +14647,10 @@
     </row>
     <row r="302" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A302">
-        <v>-533.48</v>
+        <v>-1548.06</v>
       </c>
       <c r="B302">
-        <v>-53.48</v>
+        <v>-25.42</v>
       </c>
       <c r="M302">
         <v>-0.01</v>
@@ -14657,10 +14661,10 @@
     </row>
     <row r="303" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A303">
-        <v>-531.05999999999995</v>
+        <v>-1549.67</v>
       </c>
       <c r="B303">
-        <v>-49.45</v>
+        <v>-25.68</v>
       </c>
       <c r="M303">
         <v>-0.03</v>
@@ -14671,10 +14675,10 @@
     </row>
     <row r="304" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A304">
-        <v>-539.12</v>
+        <v>-1553.7</v>
       </c>
       <c r="B304">
-        <v>-65.2</v>
+        <v>-25.68</v>
       </c>
       <c r="M304">
         <v>-0.02</v>
@@ -14685,10 +14689,10 @@
     </row>
     <row r="305" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A305">
-        <v>-539.12</v>
+        <v>-1555.31</v>
       </c>
       <c r="B305">
-        <v>-57.44</v>
+        <v>-26.04</v>
       </c>
       <c r="M305">
         <v>-0.01</v>
@@ -14699,10 +14703,10 @@
     </row>
     <row r="306" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A306">
-        <v>-533.48</v>
+        <v>-1556.12</v>
       </c>
       <c r="B306">
-        <v>-52.53</v>
+        <v>-26.3</v>
       </c>
       <c r="M306">
         <v>-0.03</v>
@@ -14713,10 +14717,10 @@
     </row>
     <row r="307" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A307">
-        <v>-531.05999999999995</v>
+        <v>-1560.15</v>
       </c>
       <c r="B307">
-        <v>-49.05</v>
+        <v>-26.45</v>
       </c>
       <c r="M307">
         <v>-0.02</v>
@@ -14727,10 +14731,10 @@
     </row>
     <row r="308" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A308">
-        <v>-543.96</v>
+        <v>-1560.15</v>
       </c>
       <c r="B308">
-        <v>-62.86</v>
+        <v>-26.63</v>
       </c>
       <c r="M308">
         <v>-0.02</v>
@@ -14741,10 +14745,10 @@
     </row>
     <row r="309" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A309">
-        <v>-539.92999999999995</v>
+        <v>-1562.56</v>
       </c>
       <c r="B309">
-        <v>-55.71</v>
+        <v>-26.89</v>
       </c>
       <c r="M309">
         <v>-0.03</v>
@@ -14755,10 +14759,10 @@
     </row>
     <row r="310" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A310">
-        <v>-536.70000000000005</v>
+        <v>-1564.98</v>
       </c>
       <c r="B310">
-        <v>-51.17</v>
+        <v>-27.07</v>
       </c>
       <c r="M310">
         <v>-0.02</v>
@@ -14769,10 +14773,10 @@
     </row>
     <row r="311" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A311">
-        <v>-530.26</v>
+        <v>-1567.4</v>
       </c>
       <c r="B311">
-        <v>-57.47</v>
+        <v>-27.22</v>
       </c>
       <c r="M311">
         <v>-0.01</v>
@@ -14783,10 +14787,10 @@
     </row>
     <row r="312" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A312">
-        <v>-543.15</v>
+        <v>-1569.01</v>
       </c>
       <c r="B312">
-        <v>-62.64</v>
+        <v>-27.4</v>
       </c>
       <c r="M312">
         <v>-0.04</v>
@@ -14797,10 +14801,10 @@
     </row>
     <row r="313" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A313">
-        <v>-538.32000000000005</v>
+        <v>-1573.85</v>
       </c>
       <c r="B313">
-        <v>-53.48</v>
+        <v>-27.58</v>
       </c>
       <c r="M313">
         <v>-0.03</v>
@@ -14811,10 +14815,10 @@
     </row>
     <row r="314" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A314">
-        <v>-531.87</v>
+        <v>-1572.23</v>
       </c>
       <c r="B314">
-        <v>-55.02</v>
+        <v>-28.02</v>
       </c>
       <c r="M314">
         <v>-0.02</v>
@@ -14825,10 +14829,10 @@
     </row>
     <row r="315" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A315">
-        <v>-548.79</v>
+        <v>-1577.07</v>
       </c>
       <c r="B315">
-        <v>-65.97</v>
+        <v>-27.99</v>
       </c>
       <c r="M315">
         <v>-0.02</v>
@@ -14839,10 +14843,10 @@
     </row>
     <row r="316" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A316">
-        <v>-540.73</v>
+        <v>-1577.07</v>
       </c>
       <c r="B316">
-        <v>-57.84</v>
+        <v>-28.39</v>
       </c>
       <c r="M316">
         <v>-0.03</v>
@@ -14853,10 +14857,10 @@
     </row>
     <row r="317" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A317">
-        <v>-535.09</v>
+        <v>-1581.9</v>
       </c>
       <c r="B317">
-        <v>-52.75</v>
+        <v>-28.32</v>
       </c>
       <c r="M317">
         <v>-0.02</v>
@@ -14867,10 +14871,10 @@
     </row>
     <row r="318" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A318">
-        <v>-537.51</v>
+        <v>-1584.32</v>
       </c>
       <c r="B318">
-        <v>-63.88</v>
+        <v>-28.32</v>
       </c>
       <c r="M318">
         <v>-0.01</v>
@@ -14881,10 +14885,10 @@
     </row>
     <row r="319" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A319">
-        <v>-543.96</v>
+        <v>-1585.93</v>
       </c>
       <c r="B319">
-        <v>-63.26</v>
+        <v>-28.9</v>
       </c>
       <c r="M319">
         <v>-0.04</v>
@@ -14895,10 +14899,10 @@
     </row>
     <row r="320" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A320">
-        <v>-539.92999999999995</v>
+        <v>-1585.93</v>
       </c>
       <c r="B320">
-        <v>-55.86</v>
+        <v>-29.19</v>
       </c>
       <c r="M320">
         <v>-0.02</v>
@@ -14909,10 +14913,10 @@
     </row>
     <row r="321" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A321">
-        <v>-535.9</v>
+        <v>-1588.35</v>
       </c>
       <c r="B321">
-        <v>-51.47</v>
+        <v>-29.19</v>
       </c>
       <c r="M321">
         <v>-0.03</v>
@@ -14923,10 +14927,10 @@
     </row>
     <row r="322" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A322">
-        <v>-543.15</v>
+        <v>-1588.35</v>
       </c>
       <c r="B322">
-        <v>-71.61</v>
+        <v>-29.71</v>
       </c>
       <c r="M322">
         <v>-0.04</v>
@@ -14937,10 +14941,10 @@
     </row>
     <row r="323" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A323">
-        <v>-546.37</v>
+        <v>-1593.19</v>
       </c>
       <c r="B323">
-        <v>-62.56</v>
+        <v>-30.07</v>
       </c>
       <c r="M323">
         <v>-0.02</v>
@@ -14951,10 +14955,10 @@
     </row>
     <row r="324" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A324">
-        <v>-535.09</v>
+        <v>-1597.22</v>
       </c>
       <c r="B324">
-        <v>-53.63</v>
+        <v>-29.96</v>
       </c>
       <c r="M324">
         <v>-0.02</v>
@@ -14965,10 +14969,10 @@
     </row>
     <row r="325" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A325">
-        <v>-543.15</v>
+        <v>-1598.02</v>
       </c>
       <c r="B325">
-        <v>-69.05</v>
+        <v>-29.96</v>
       </c>
       <c r="M325">
         <v>-0.04</v>
@@ -14979,10 +14983,10 @@
     </row>
     <row r="326" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A326">
-        <v>-545.57000000000005</v>
+        <v>-1598.83</v>
       </c>
       <c r="B326">
-        <v>-65.53</v>
+        <v>-30.26</v>
       </c>
       <c r="M326">
         <v>-0.02</v>
@@ -14993,10 +14997,10 @@
     </row>
     <row r="327" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A327">
-        <v>-539.92999999999995</v>
+        <v>-1601.25</v>
       </c>
       <c r="B327">
-        <v>-57.33</v>
+        <v>-30.55</v>
       </c>
       <c r="M327">
         <v>-0.02</v>
@@ -15007,10 +15011,10 @@
     </row>
     <row r="328" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A328">
-        <v>-536.70000000000005</v>
+        <v>-1601.25</v>
       </c>
       <c r="B328">
-        <v>-52.97</v>
+        <v>-30.88</v>
       </c>
       <c r="M328">
         <v>-0.04</v>
@@ -15021,10 +15025,10 @@
     </row>
     <row r="329" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A329">
-        <v>-552.01</v>
+        <v>-1606.08</v>
       </c>
       <c r="B329">
-        <v>-74.290000000000006</v>
+        <v>-30.99</v>
       </c>
       <c r="M329">
         <v>-0.03</v>
@@ -15035,10 +15039,10 @@
     </row>
     <row r="330" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A330">
-        <v>-543.96</v>
+        <v>-1606.89</v>
       </c>
       <c r="B330">
-        <v>-62.53</v>
+        <v>-31.39</v>
       </c>
       <c r="M330">
         <v>-0.02</v>
@@ -15049,10 +15053,10 @@
     </row>
     <row r="331" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A331">
-        <v>-539.12</v>
+        <v>-1609.3</v>
       </c>
       <c r="B331">
-        <v>-55.53</v>
+        <v>-31.43</v>
       </c>
       <c r="M331">
         <v>-0.05</v>
@@ -15063,10 +15067,10 @@
     </row>
     <row r="332" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A332">
-        <v>-537.51</v>
+        <v>-1610.92</v>
       </c>
       <c r="B332">
-        <v>-62.23</v>
+        <v>-31.61</v>
       </c>
       <c r="M332">
         <v>-0.03</v>
@@ -15077,10 +15081,10 @@
     </row>
     <row r="333" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A333">
-        <v>-552.01</v>
+        <v>-1615.75</v>
       </c>
       <c r="B333">
-        <v>-72.45</v>
+        <v>-31.72</v>
       </c>
       <c r="M333">
         <v>-0.02</v>
@@ -15091,10 +15095,10 @@
     </row>
     <row r="334" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A334">
-        <v>-539.12</v>
+        <v>-1613.33</v>
       </c>
       <c r="B334">
-        <v>-58.53</v>
+        <v>-32.270000000000003</v>
       </c>
       <c r="M334">
         <v>-0.04</v>
@@ -15105,10 +15109,10 @@
     </row>
     <row r="335" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A335">
-        <v>-537.51</v>
+        <v>-1616.56</v>
       </c>
       <c r="B335">
-        <v>-58.24</v>
+        <v>-32.42</v>
       </c>
       <c r="M335">
         <v>-0.03</v>
@@ -15119,10 +15123,10 @@
     </row>
     <row r="336" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A336">
-        <v>-552.01</v>
+        <v>-1618.97</v>
       </c>
       <c r="B336">
-        <v>-78.02</v>
+        <v>-32.82</v>
       </c>
       <c r="M336">
         <v>-0.02</v>
@@ -15133,10 +15137,10 @@
     </row>
     <row r="337" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A337">
-        <v>-545.57000000000005</v>
+        <v>-1622.2</v>
       </c>
       <c r="B337">
-        <v>-64.84</v>
+        <v>-32.97</v>
       </c>
       <c r="M337">
         <v>-0.03</v>
@@ -15147,10 +15151,10 @@
     </row>
     <row r="338" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A338">
-        <v>-540.73</v>
+        <v>-1624.62</v>
       </c>
       <c r="B338">
-        <v>-56.92</v>
+        <v>-33.22</v>
       </c>
       <c r="M338">
         <v>-0.04</v>
@@ -15161,10 +15165,10 @@
     </row>
     <row r="339" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A339">
-        <v>-541.54</v>
+        <v>-1627.84</v>
       </c>
       <c r="B339">
-        <v>-66.89</v>
+        <v>-33.44</v>
       </c>
       <c r="M339">
         <v>-0.02</v>
@@ -15175,10 +15179,10 @@
     </row>
     <row r="340" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A340">
-        <v>-552.01</v>
+        <v>-1628.64</v>
       </c>
       <c r="B340">
-        <v>-73.040000000000006</v>
+        <v>-33.479999999999997</v>
       </c>
       <c r="M340">
         <v>-0.04</v>
@@ -15189,10 +15193,10 @@
     </row>
     <row r="341" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A341">
-        <v>-542.34</v>
+        <v>-1628.64</v>
       </c>
       <c r="B341">
-        <v>-61.68</v>
+        <v>-33.99</v>
       </c>
       <c r="M341">
         <v>-0.04</v>
@@ -15203,10 +15207,10 @@
     </row>
     <row r="342" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A342">
-        <v>-539.92999999999995</v>
+        <v>-1635.09</v>
       </c>
       <c r="B342">
-        <v>-55.13</v>
+        <v>-34.1</v>
       </c>
       <c r="M342">
         <v>-0.02</v>
@@ -15217,10 +15221,10 @@
     </row>
     <row r="343" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A343">
-        <v>-544.76</v>
+        <v>-1638.31</v>
       </c>
       <c r="B343">
-        <v>-73.92</v>
+        <v>-34.43</v>
       </c>
       <c r="M343">
         <v>-0.03</v>
@@ -15231,10 +15235,10 @@
     </row>
     <row r="344" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A344">
-        <v>-551.21</v>
+        <v>-1637.51</v>
       </c>
       <c r="B344">
-        <v>-71.319999999999993</v>
+        <v>-34.799999999999997</v>
       </c>
       <c r="M344">
         <v>-0.05</v>
@@ -15245,10 +15249,10 @@
     </row>
     <row r="345" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A345">
-        <v>-542.34</v>
+        <v>-1637.51</v>
       </c>
       <c r="B345">
-        <v>-58.21</v>
+        <v>-35.049999999999997</v>
       </c>
       <c r="M345">
         <v>-0.03</v>
@@ -15259,10 +15263,10 @@
     </row>
     <row r="346" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A346">
-        <v>-545.57000000000005</v>
+        <v>-1639.12</v>
       </c>
       <c r="B346">
-        <v>-71.25</v>
+        <v>-35.200000000000003</v>
       </c>
       <c r="M346">
         <v>-0.02</v>
@@ -15273,10 +15277,10 @@
     </row>
     <row r="347" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A347">
-        <v>-553.63</v>
+        <v>-1640.73</v>
       </c>
       <c r="B347">
-        <v>-76.23</v>
+        <v>-35.64</v>
       </c>
       <c r="M347">
         <v>-0.05</v>
@@ -15287,10 +15291,10 @@
     </row>
     <row r="348" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A348">
-        <v>-544.76</v>
+        <v>-1643.15</v>
       </c>
       <c r="B348">
-        <v>-63.77</v>
+        <v>-35.93</v>
       </c>
       <c r="M348">
         <v>-0.03</v>
@@ -15301,10 +15305,10 @@
     </row>
     <row r="349" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A349">
-        <v>-539.92999999999995</v>
+        <v>-1646.37</v>
       </c>
       <c r="B349">
-        <v>-56.45</v>
+        <v>-35.93</v>
       </c>
       <c r="M349">
         <v>-0.02</v>
@@ -15315,10 +15319,10 @@
     </row>
     <row r="350" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A350">
-        <v>-550.4</v>
+        <v>-1649.6</v>
       </c>
       <c r="B350">
-        <v>-77.88</v>
+        <v>-36.479999999999997</v>
       </c>
       <c r="M350">
         <v>-0.05</v>
@@ -15329,10 +15333,10 @@
     </row>
     <row r="351" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A351">
-        <v>-547.17999999999995</v>
+        <v>-1655.24</v>
       </c>
       <c r="B351">
-        <v>-71.5</v>
+        <v>-36.590000000000003</v>
       </c>
       <c r="M351">
         <v>-0.03</v>
@@ -15343,10 +15347,10 @@
     </row>
     <row r="352" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A352">
-        <v>-543.15</v>
+        <v>-1657.66</v>
       </c>
       <c r="B352">
-        <v>-61.25</v>
+        <v>-36.700000000000003</v>
       </c>
       <c r="M352">
         <v>-0.02</v>
@@ -15357,10 +15361,10 @@
     </row>
     <row r="353" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A353">
-        <v>-539.12</v>
+        <v>-1660.88</v>
       </c>
       <c r="B353">
-        <v>-64.400000000000006</v>
+        <v>-37</v>
       </c>
       <c r="M353">
         <v>-0.05</v>
@@ -15371,10 +15375,10 @@
     </row>
     <row r="354" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A354">
-        <v>-553.63</v>
+        <v>-1660.07</v>
       </c>
       <c r="B354">
-        <v>-83.66</v>
+        <v>-37.44</v>
       </c>
       <c r="M354">
         <v>-0.04</v>
@@ -15385,10 +15389,10 @@
     </row>
     <row r="355" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A355">
-        <v>-550.4</v>
+        <v>-1663.3</v>
       </c>
       <c r="B355">
-        <v>-69.41</v>
+        <v>-37.729999999999997</v>
       </c>
       <c r="M355">
         <v>-0.02</v>
@@ -15399,10 +15403,10 @@
     </row>
     <row r="356" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A356">
-        <v>-540.73</v>
+        <v>-1663.3</v>
       </c>
       <c r="B356">
-        <v>-62.53</v>
+        <v>-38.1</v>
       </c>
       <c r="M356">
         <v>-0.04</v>
@@ -15413,10 +15417,10 @@
     </row>
     <row r="357" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A357">
-        <v>-552.82000000000005</v>
+        <v>-1664.91</v>
       </c>
       <c r="B357">
-        <v>-82.67</v>
+        <v>-38.61</v>
       </c>
       <c r="M357">
         <v>-0.04</v>
@@ -15427,10 +15431,10 @@
     </row>
     <row r="358" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A358">
-        <v>-550.4</v>
+        <v>-1665.71</v>
       </c>
       <c r="B358">
-        <v>-73.52</v>
+        <v>-38.68</v>
       </c>
       <c r="M358">
         <v>-0.02</v>
@@ -15441,10 +15445,10 @@
     </row>
     <row r="359" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A359">
-        <v>-543.15</v>
+        <v>-1667.33</v>
       </c>
       <c r="B359">
-        <v>-62.2</v>
+        <v>-39.08</v>
       </c>
       <c r="M359">
         <v>-0.04</v>
@@ -15455,10 +15459,10 @@
     </row>
     <row r="360" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A360">
-        <v>-544.76</v>
+        <v>-1668.94</v>
       </c>
       <c r="B360">
-        <v>-70.7</v>
+        <v>-39.49</v>
       </c>
       <c r="M360">
         <v>-0.06</v>
@@ -15469,10 +15473,10 @@
     </row>
     <row r="361" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A361">
-        <v>-554.42999999999995</v>
+        <v>-1673.77</v>
       </c>
       <c r="B361">
-        <v>-85.57</v>
+        <v>-39.71</v>
       </c>
       <c r="M361">
         <v>-0.03</v>
@@ -15483,10 +15487,10 @@
     </row>
     <row r="362" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A362">
-        <v>-549.6</v>
+        <v>-1673.77</v>
       </c>
       <c r="B362">
-        <v>-68.75</v>
+        <v>-39.520000000000003</v>
       </c>
       <c r="M362">
         <v>-0.04</v>
@@ -15497,10 +15501,10 @@
     </row>
     <row r="363" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A363">
-        <v>-543.15</v>
+        <v>-1678.61</v>
       </c>
       <c r="B363">
-        <v>-59.85</v>
+        <v>-40.33</v>
       </c>
       <c r="M363">
         <v>-0.05</v>
@@ -15511,10 +15515,10 @@
     </row>
     <row r="364" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A364">
-        <v>-550.4</v>
+        <v>-1677.8</v>
       </c>
       <c r="B364">
-        <v>-77.069999999999993</v>
+        <v>-40.26</v>
       </c>
       <c r="M364">
         <v>-0.03</v>
@@ -15525,10 +15529,10 @@
     </row>
     <row r="365" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A365">
-        <v>-554.42999999999995</v>
+        <v>-1681.03</v>
       </c>
       <c r="B365">
-        <v>-82.09</v>
+        <v>-40.81</v>
       </c>
       <c r="M365">
         <v>-0.03</v>
@@ -15539,10 +15543,10 @@
     </row>
     <row r="366" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A366">
-        <v>-546.37</v>
+        <v>-1684.25</v>
       </c>
       <c r="B366">
-        <v>-67.14</v>
+        <v>-41.14</v>
       </c>
       <c r="M366">
         <v>-0.06</v>
@@ -15553,10 +15557,10 @@
     </row>
     <row r="367" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A367">
-        <v>-547.99</v>
+        <v>-1681.83</v>
       </c>
       <c r="B367">
-        <v>-74.8</v>
+        <v>-41.58</v>
       </c>
       <c r="M367">
         <v>-0.03</v>
@@ -15567,10 +15571,10 @@
     </row>
     <row r="368" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A368">
-        <v>-555.24</v>
+        <v>-1688.28</v>
       </c>
       <c r="B368">
-        <v>-87.25</v>
+        <v>-41.61</v>
       </c>
       <c r="M368">
         <v>-0.02</v>
@@ -15581,10 +15585,10 @@
     </row>
     <row r="369" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A369">
-        <v>-548.79</v>
+        <v>-1689.08</v>
       </c>
       <c r="B369">
-        <v>-70.22</v>
+        <v>-42.16</v>
       </c>
       <c r="M369">
         <v>-0.05</v>
@@ -15595,10 +15599,10 @@
     </row>
     <row r="370" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A370">
-        <v>-542.34</v>
+        <v>-1690.7</v>
       </c>
       <c r="B370">
-        <v>-60.29</v>
+        <v>-42.56</v>
       </c>
       <c r="M370">
         <v>-0.04</v>
@@ -15609,10 +15613,10 @@
     </row>
     <row r="371" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A371">
-        <v>-553.63</v>
+        <v>-1691.5</v>
       </c>
       <c r="B371">
-        <v>-80.88</v>
+        <v>-42.86</v>
       </c>
       <c r="M371">
         <v>-0.04</v>
@@ -15623,10 +15627,10 @@
     </row>
     <row r="372" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A372">
-        <v>-554.42999999999995</v>
+        <v>-1697.14</v>
       </c>
       <c r="B372">
-        <v>-83.04</v>
+        <v>-43</v>
       </c>
       <c r="M372">
         <v>-0.06</v>
@@ -15637,10 +15641,10 @@
     </row>
     <row r="373" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A373">
-        <v>-547.99</v>
+        <v>-1694.73</v>
       </c>
       <c r="B373">
-        <v>-67.77</v>
+        <v>-43.44</v>
       </c>
       <c r="M373">
         <v>-0.03</v>
@@ -15651,10 +15655,10 @@
     </row>
     <row r="374" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A374">
-        <v>-543.96</v>
+        <v>-1701.17</v>
       </c>
       <c r="B374">
-        <v>-68.64</v>
+        <v>-43.88</v>
       </c>
       <c r="M374">
         <v>-0.02</v>
@@ -15665,10 +15669,10 @@
     </row>
     <row r="375" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A375">
-        <v>-554.42999999999995</v>
+        <v>-1700.37</v>
       </c>
       <c r="B375">
-        <v>-87.25</v>
+        <v>-43.92</v>
       </c>
       <c r="M375">
         <v>-0.05</v>
@@ -15679,10 +15683,10 @@
     </row>
     <row r="376" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A376">
-        <v>-552.01</v>
+        <v>-1698.75</v>
       </c>
       <c r="B376">
-        <v>-77.510000000000005</v>
+        <v>-44.76</v>
       </c>
       <c r="M376">
         <v>-0.04</v>
@@ -15693,10 +15697,10 @@
     </row>
     <row r="377" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A377">
-        <v>-545.57000000000005</v>
+        <v>-1702.78</v>
       </c>
       <c r="B377">
-        <v>-64.87</v>
+        <v>-44.98</v>
       </c>
       <c r="M377">
         <v>-0.03</v>
@@ -15707,10 +15711,10 @@
     </row>
     <row r="378" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A378">
-        <v>-554.42999999999995</v>
+        <v>-1701.98</v>
       </c>
       <c r="B378">
-        <v>-86.89</v>
+        <v>-45.05</v>
       </c>
       <c r="M378">
         <v>-0.05</v>
@@ -15721,10 +15725,10 @@
     </row>
     <row r="379" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A379">
-        <v>-555.24</v>
+        <v>-1706.01</v>
       </c>
       <c r="B379">
-        <v>-83.3</v>
+        <v>-45.49</v>
       </c>
       <c r="M379">
         <v>-0.05</v>
@@ -15735,10 +15739,10 @@
     </row>
     <row r="380" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A380">
-        <v>-546.37</v>
+        <v>-1705.2</v>
       </c>
       <c r="B380">
-        <v>-68.239999999999995</v>
+        <v>-46.12</v>
       </c>
       <c r="M380">
         <v>-0.03</v>
@@ -15749,10 +15753,10 @@
     </row>
     <row r="381" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A381">
-        <v>-547.17999999999995</v>
+        <v>-1713.26</v>
       </c>
       <c r="B381">
-        <v>-75.27</v>
+        <v>-46.15</v>
       </c>
       <c r="M381">
         <v>-0.05</v>
@@ -15763,10 +15767,10 @@
     </row>
     <row r="382" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A382">
-        <v>-556.85</v>
+        <v>-1713.26</v>
       </c>
       <c r="B382">
-        <v>-91.72</v>
+        <v>-46.26</v>
       </c>
       <c r="M382">
         <v>-0.05</v>
@@ -15777,10 +15781,10 @@
     </row>
     <row r="383" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A383">
-        <v>-552.01</v>
+        <v>-1713.26</v>
       </c>
       <c r="B383">
-        <v>-78.17</v>
+        <v>-46.96</v>
       </c>
       <c r="M383">
         <v>-0.03</v>
@@ -15791,10 +15795,10 @@
     </row>
     <row r="384" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A384">
-        <v>-543.96</v>
+        <v>-1714.87</v>
       </c>
       <c r="B384">
-        <v>-65.05</v>
+        <v>-47.44</v>
       </c>
       <c r="M384">
         <v>-0.04</v>
@@ -15805,10 +15809,10 @@
     </row>
     <row r="385" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A385">
-        <v>-553.63</v>
+        <v>-1715.68</v>
       </c>
       <c r="B385">
-        <v>-81.83</v>
+        <v>-47.84</v>
       </c>
       <c r="M385">
         <v>-0.06</v>
@@ -15819,10 +15823,10 @@
     </row>
     <row r="386" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A386">
-        <v>-556.04</v>
+        <v>-1715.68</v>
       </c>
       <c r="B386">
-        <v>-92.53</v>
+        <v>-48.1</v>
       </c>
       <c r="M386">
         <v>-0.04</v>
@@ -15833,10 +15837,10 @@
     </row>
     <row r="387" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A387">
-        <v>-553.63</v>
+        <v>-1720.51</v>
       </c>
       <c r="B387">
-        <v>-72.97</v>
+        <v>-48.42</v>
       </c>
       <c r="M387">
         <v>-0.03</v>
@@ -15847,10 +15851,10 @@
     </row>
     <row r="388" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A388">
-        <v>-544.76</v>
+        <v>-1719.71</v>
       </c>
       <c r="B388">
-        <v>-68.64</v>
+        <v>-48.9</v>
       </c>
       <c r="M388">
         <v>-0.06</v>
@@ -15861,10 +15865,10 @@
     </row>
     <row r="389" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A389">
-        <v>-555.24</v>
+        <v>-1720.51</v>
       </c>
       <c r="B389">
-        <v>-95.93</v>
+        <v>-49.41</v>
       </c>
       <c r="M389">
         <v>-0.04</v>
@@ -15875,10 +15879,10 @@
     </row>
     <row r="390" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A390">
-        <v>-554.42999999999995</v>
+        <v>-1726.15</v>
       </c>
       <c r="B390">
-        <v>-78.53</v>
+        <v>-49.63</v>
       </c>
       <c r="M390">
         <v>-0.02</v>
@@ -15889,10 +15893,10 @@
     </row>
     <row r="391" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A391">
-        <v>-547.17999999999995</v>
+        <v>-1726.15</v>
       </c>
       <c r="B391">
-        <v>-67.11</v>
+        <v>-50.22</v>
       </c>
       <c r="M391">
         <v>-0.06</v>
@@ -15903,10 +15907,10 @@
     </row>
     <row r="392" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A392">
-        <v>-554.42999999999995</v>
+        <v>-1731.79</v>
       </c>
       <c r="B392">
-        <v>-86.7</v>
+        <v>-50.44</v>
       </c>
       <c r="M392">
         <v>-0.04</v>
@@ -15917,10 +15921,10 @@
     </row>
     <row r="393" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A393">
-        <v>-560.07000000000005</v>
+        <v>-1732.6</v>
       </c>
       <c r="B393">
-        <v>-93.85</v>
+        <v>-50.84</v>
       </c>
       <c r="M393">
         <v>-0.03</v>
@@ -15931,10 +15935,10 @@
     </row>
     <row r="394" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A394">
-        <v>-552.01</v>
+        <v>-1730.18</v>
       </c>
       <c r="B394">
-        <v>-73.959999999999994</v>
+        <v>-51.28</v>
       </c>
       <c r="M394">
         <v>-0.06</v>
@@ -15945,10 +15949,10 @@
     </row>
     <row r="395" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A395">
-        <v>-549.6</v>
+        <v>-1732.6</v>
       </c>
       <c r="B395">
-        <v>-75.459999999999994</v>
+        <v>-51.76</v>
       </c>
       <c r="M395">
         <v>-0.05</v>
@@ -15959,10 +15963,10 @@
     </row>
     <row r="396" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A396">
-        <v>-554.42999999999995</v>
+        <v>-1735.82</v>
       </c>
       <c r="B396">
-        <v>-91.94</v>
+        <v>-51.98</v>
       </c>
       <c r="M396">
         <v>-0.03</v>
@@ -15973,10 +15977,10 @@
     </row>
     <row r="397" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A397">
-        <v>-555.24</v>
+        <v>-1740.66</v>
       </c>
       <c r="B397">
-        <v>-86.04</v>
+        <v>-52.75</v>
       </c>
       <c r="M397">
         <v>-0.05</v>
@@ -15987,10 +15991,10 @@
     </row>
     <row r="398" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A398">
-        <v>-547.17999999999995</v>
+        <v>-1739.85</v>
       </c>
       <c r="B398">
-        <v>-69.739999999999995</v>
+        <v>-53.19</v>
       </c>
       <c r="M398">
         <v>-0.06</v>
@@ -16001,10 +16005,10 @@
     </row>
     <row r="399" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A399">
-        <v>-552.01</v>
+        <v>-1740.66</v>
       </c>
       <c r="B399">
-        <v>-81.790000000000006</v>
+        <v>-53.74</v>
       </c>
       <c r="M399">
         <v>-0.03</v>
@@ -16015,10 +16019,10 @@
     </row>
     <row r="400" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A400">
-        <v>-560.07000000000005</v>
+        <v>-1741.47</v>
       </c>
       <c r="B400">
-        <v>-95.86</v>
+        <v>-54.1</v>
       </c>
       <c r="M400">
         <v>-0.04</v>
@@ -16029,10 +16033,10 @@
     </row>
     <row r="401" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A401">
-        <v>-552.01</v>
+        <v>-1742.27</v>
       </c>
       <c r="B401">
-        <v>-75.02</v>
+        <v>-54.69</v>
       </c>
       <c r="M401">
         <v>-0.06</v>
@@ -16043,10 +16047,10 @@
     </row>
     <row r="402" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A402">
-        <v>-551.21</v>
+        <v>-1746.3</v>
       </c>
       <c r="B402">
-        <v>-79.819999999999993</v>
+        <v>-54.84</v>
       </c>
       <c r="M402">
         <v>-0.04</v>
@@ -16057,10 +16061,10 @@
     </row>
     <row r="403" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A403">
-        <v>-556.85</v>
+        <v>-1745.49</v>
       </c>
       <c r="B403">
-        <v>-94.84</v>
+        <v>-55.93</v>
       </c>
       <c r="M403">
         <v>-0.05</v>
@@ -16071,10 +16075,10 @@
     </row>
     <row r="404" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A404">
-        <v>-556.04</v>
+        <v>-1746.3</v>
       </c>
       <c r="B404">
-        <v>-88.64</v>
+        <v>-56.23</v>
       </c>
       <c r="M404">
         <v>-7.0000000000000007E-2</v>
@@ -16085,10 +16089,10 @@
     </row>
     <row r="405" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A405">
-        <v>-550.4</v>
+        <v>-1751.94</v>
       </c>
       <c r="B405">
-        <v>-71.209999999999994</v>
+        <v>-56.74</v>
       </c>
       <c r="M405">
         <v>-0.04</v>
@@ -16099,10 +16103,10 @@
     </row>
     <row r="406" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A406">
-        <v>-554.42999999999995</v>
+        <v>-1752.75</v>
       </c>
       <c r="B406">
-        <v>-86.19</v>
+        <v>-57.36</v>
       </c>
       <c r="M406">
         <v>-0.04</v>
@@ -16113,10 +16117,10 @@
     </row>
     <row r="407" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A407">
-        <v>-559.27</v>
+        <v>-1753.55</v>
       </c>
       <c r="B407">
-        <v>-98.72</v>
+        <v>-57.91</v>
       </c>
       <c r="M407">
         <v>-0.06</v>
@@ -16127,10 +16131,10 @@
     </row>
     <row r="408" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A408">
-        <v>-556.85</v>
+        <v>-1754.36</v>
       </c>
       <c r="B408">
-        <v>-81.540000000000006</v>
+        <v>-58.53</v>
       </c>
       <c r="M408">
         <v>-0.05</v>
@@ -16141,10 +16145,10 @@
     </row>
     <row r="409" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A409">
-        <v>-546.37</v>
+        <v>-1756.78</v>
       </c>
       <c r="B409">
-        <v>-74.209999999999994</v>
+        <v>-59.23</v>
       </c>
       <c r="M409">
         <v>-0.03</v>
@@ -16155,10 +16159,10 @@
     </row>
     <row r="410" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A410">
-        <v>-559.27</v>
+        <v>-1758.39</v>
       </c>
       <c r="B410">
-        <v>-98.24</v>
+        <v>-59.82</v>
       </c>
       <c r="M410">
         <v>-0.06</v>
@@ -16169,10 +16173,10 @@
     </row>
     <row r="411" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A411">
-        <v>-558.46</v>
+        <v>-1759.19</v>
       </c>
       <c r="B411">
-        <v>-89.52</v>
+        <v>-60.15</v>
       </c>
       <c r="M411">
         <v>-0.06</v>
@@ -16183,10 +16187,10 @@
     </row>
     <row r="412" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A412">
-        <v>-552.82000000000005</v>
+        <v>-1761.61</v>
       </c>
       <c r="B412">
-        <v>-72.2</v>
+        <v>-60.81</v>
       </c>
       <c r="M412">
         <v>-0.05</v>
@@ -16197,10 +16201,10 @@
     </row>
     <row r="413" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A413">
-        <v>-554.42999999999995</v>
+        <v>-1760.81</v>
       </c>
       <c r="B413">
-        <v>-90.26</v>
+        <v>-61.54</v>
       </c>
       <c r="M413">
         <v>-0.06</v>
@@ -16211,10 +16215,10 @@
     </row>
     <row r="414" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A414">
-        <v>-556.85</v>
+        <v>-1763.22</v>
       </c>
       <c r="B414">
-        <v>-101.54</v>
+        <v>-62.2</v>
       </c>
       <c r="M414">
         <v>-0.05</v>
@@ -16225,10 +16229,10 @@
     </row>
     <row r="415" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A415">
-        <v>-554.42999999999995</v>
+        <v>-1763.22</v>
       </c>
       <c r="B415">
-        <v>-83</v>
+        <v>-63.11</v>
       </c>
       <c r="M415">
         <v>-0.04</v>
@@ -16239,10 +16243,10 @@
     </row>
     <row r="416" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A416">
-        <v>-551.21</v>
+        <v>-1766.45</v>
       </c>
       <c r="B416">
-        <v>-79.849999999999994</v>
+        <v>-63.81</v>
       </c>
       <c r="M416">
         <v>-0.06</v>
@@ -16253,10 +16257,10 @@
     </row>
     <row r="417" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A417">
-        <v>-555.24</v>
+        <v>-1766.45</v>
       </c>
       <c r="B417">
-        <v>-95.24</v>
+        <v>-64.47</v>
       </c>
       <c r="M417">
         <v>-0.06</v>
@@ -16267,10 +16271,10 @@
     </row>
     <row r="418" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A418">
-        <v>-563.29999999999995</v>
+        <v>-1768.06</v>
       </c>
       <c r="B418">
-        <v>-99.12</v>
+        <v>-65.16</v>
       </c>
       <c r="M418">
         <v>-0.03</v>
@@ -16281,10 +16285,10 @@
     </row>
     <row r="419" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A419">
-        <v>-553.63</v>
+        <v>-1768.06</v>
       </c>
       <c r="B419">
-        <v>-77.069999999999993</v>
+        <v>-66.040000000000006</v>
       </c>
       <c r="M419">
         <v>-0.06</v>
@@ -16295,10 +16299,10 @@
     </row>
     <row r="420" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A420">
-        <v>-552.82000000000005</v>
+        <v>-1770.48</v>
       </c>
       <c r="B420">
-        <v>-85.82</v>
+        <v>-66.81</v>
       </c>
       <c r="M420">
         <v>-7.0000000000000007E-2</v>
@@ -16309,10 +16313,10 @@
     </row>
     <row r="421" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A421">
-        <v>-561.67999999999995</v>
+        <v>-1770.48</v>
       </c>
       <c r="B421">
-        <v>-105.16</v>
+        <v>-67.8</v>
       </c>
       <c r="M421">
         <v>-0.04</v>
@@ -16323,10 +16327,10 @@
     </row>
     <row r="422" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A422">
-        <v>-554.42999999999995</v>
+        <v>-1772.09</v>
       </c>
       <c r="B422">
-        <v>-81.58</v>
+        <v>-68.39</v>
       </c>
       <c r="M422">
         <v>-0.06</v>
@@ -16337,10 +16341,10 @@
     </row>
     <row r="423" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A423">
-        <v>-553.63</v>
+        <v>-1771.28</v>
       </c>
       <c r="B423">
-        <v>-86.15</v>
+        <v>-69.489999999999995</v>
       </c>
       <c r="M423">
         <v>-7.0000000000000007E-2</v>
@@ -16351,10 +16355,10 @@
     </row>
     <row r="424" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A424">
-        <v>-560.07000000000005</v>
+        <v>-1774.51</v>
       </c>
       <c r="B424">
-        <v>-99.38</v>
+        <v>-69.34</v>
       </c>
       <c r="M424">
         <v>-0.04</v>
@@ -16365,10 +16369,10 @@
     </row>
     <row r="425" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A425">
-        <v>-562.49</v>
+        <v>-1775.31</v>
       </c>
       <c r="B425">
-        <v>-97.51</v>
+        <v>-69.3</v>
       </c>
       <c r="M425">
         <v>-0.05</v>
@@ -16379,10 +16383,10 @@
     </row>
     <row r="426" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A426">
-        <v>-552.01</v>
+        <v>-1776.92</v>
       </c>
       <c r="B426">
-        <v>-76.41</v>
+        <v>-69.23</v>
       </c>
       <c r="M426">
         <v>-7.0000000000000007E-2</v>
@@ -16393,10 +16397,10 @@
     </row>
     <row r="427" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A427">
-        <v>-556.85</v>
+        <v>-1780.15</v>
       </c>
       <c r="B427">
-        <v>-91.94</v>
+        <v>-69.08</v>
       </c>
       <c r="M427">
         <v>-0.05</v>
@@ -16407,10 +16411,10 @@
     </row>
     <row r="428" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A428">
-        <v>-562.49</v>
+        <v>-1779.34</v>
       </c>
       <c r="B428">
-        <v>-102.64</v>
+        <v>-69.12</v>
       </c>
       <c r="M428">
         <v>-0.05</v>
@@ -16421,10 +16425,10 @@
     </row>
     <row r="429" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A429">
-        <v>-556.85</v>
+        <v>-1781.76</v>
       </c>
       <c r="B429">
-        <v>-89.63</v>
+        <v>-69.010000000000005</v>
       </c>
       <c r="M429">
         <v>-0.06</v>
@@ -16435,10 +16439,10 @@
     </row>
     <row r="430" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A430">
-        <v>-554.42999999999995</v>
+        <v>-1779.34</v>
       </c>
       <c r="B430">
-        <v>-81.47</v>
+        <v>-69.12</v>
       </c>
       <c r="M430">
         <v>-0.06</v>
@@ -16449,10 +16453,10 @@
     </row>
     <row r="431" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A431">
-        <v>-556.85</v>
+        <v>-1781.76</v>
       </c>
       <c r="B431">
-        <v>-96.41</v>
+        <v>-69.010000000000005</v>
       </c>
       <c r="M431">
         <v>-0.04</v>
@@ -16463,10 +16467,10 @@
     </row>
     <row r="432" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A432">
-        <v>-560.07000000000005</v>
+        <v>-1784.18</v>
       </c>
       <c r="B432">
-        <v>-94.65</v>
+        <v>-68.900000000000006</v>
       </c>
       <c r="M432">
         <v>-7.0000000000000007E-2</v>
@@ -16477,10 +16481,10 @@
     </row>
     <row r="433" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A433">
-        <v>-553.63</v>
+        <v>-1781.76</v>
       </c>
       <c r="B433">
-        <v>-82.93</v>
+        <v>-69.010000000000005</v>
       </c>
       <c r="M433">
         <v>-0.06</v>
@@ -16491,10 +16495,10 @@
     </row>
     <row r="434" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A434">
-        <v>-558.46</v>
+        <v>-1784.98</v>
       </c>
       <c r="B434">
-        <v>-97.36</v>
+        <v>-68.86</v>
       </c>
       <c r="M434">
         <v>-0.05</v>
@@ -16505,10 +16509,10 @@
     </row>
     <row r="435" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A435">
-        <v>-560.07000000000005</v>
+        <v>-1787.4</v>
       </c>
       <c r="B435">
-        <v>-105.79</v>
+        <v>-68.75</v>
       </c>
       <c r="M435">
         <v>-0.06</v>
@@ -16519,10 +16523,10 @@
     </row>
     <row r="436" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A436">
-        <v>-558.46</v>
+        <v>-1787.4</v>
       </c>
       <c r="B436">
-        <v>-88.39</v>
+        <v>-68.75</v>
       </c>
       <c r="M436">
         <v>-7.0000000000000007E-2</v>
@@ -16533,10 +16537,10 @@
     </row>
     <row r="437" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A437">
-        <v>-554.42999999999995</v>
+        <v>-1789.82</v>
       </c>
       <c r="B437">
-        <v>-89.71</v>
+        <v>-68.64</v>
       </c>
       <c r="M437">
         <v>-0.04</v>
@@ -16547,10 +16551,10 @@
     </row>
     <row r="438" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A438">
-        <v>-557.66</v>
+        <v>-1789.82</v>
       </c>
       <c r="B438">
-        <v>-100.77</v>
+        <v>-68.64</v>
       </c>
       <c r="M438">
         <v>-0.06</v>
@@ -16561,10 +16565,10 @@
     </row>
     <row r="439" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A439">
-        <v>-563.29999999999995</v>
+        <v>-1791.43</v>
       </c>
       <c r="B439">
-        <v>-106.52</v>
+        <v>-68.569999999999993</v>
       </c>
       <c r="M439">
         <v>-7.0000000000000007E-2</v>
@@ -16575,10 +16579,10 @@
     </row>
     <row r="440" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A440">
-        <v>-554.42999999999995</v>
+        <v>-1792.23</v>
       </c>
       <c r="B440">
-        <v>-81.36</v>
+        <v>-68.53</v>
       </c>
       <c r="M440">
         <v>-0.05</v>
@@ -16589,10 +16593,10 @@
     </row>
     <row r="441" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A441">
-        <v>-554.42999999999995</v>
+        <v>-1789.82</v>
       </c>
       <c r="B441">
-        <v>-94.29</v>
+        <v>-68.64</v>
       </c>
       <c r="M441">
         <v>-0.06</v>
@@ -16603,10 +16607,10 @@
     </row>
     <row r="442" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A442">
-        <v>-562.49</v>
+        <v>-1790.62</v>
       </c>
       <c r="B442">
-        <v>-110.29</v>
+        <v>-68.61</v>
       </c>
       <c r="M442">
         <v>-7.0000000000000007E-2</v>
@@ -16617,10 +16621,10 @@
     </row>
     <row r="443" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A443">
-        <v>-554.42999999999995</v>
+        <v>-1791.43</v>
       </c>
       <c r="B443">
-        <v>-84.51</v>
+        <v>-68.569999999999993</v>
       </c>
       <c r="M443">
         <v>-0.05</v>
@@ -16631,10 +16635,10 @@
     </row>
     <row r="444" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A444">
-        <v>-556.04</v>
+        <v>-1791.43</v>
       </c>
       <c r="B444">
-        <v>-96.19</v>
+        <v>-68.569999999999993</v>
       </c>
       <c r="M444">
         <v>-0.06</v>
@@ -16645,10 +16649,10 @@
     </row>
     <row r="445" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A445">
-        <v>-562.49</v>
+        <v>-1792.23</v>
       </c>
       <c r="B445">
-        <v>-105.13</v>
+        <v>-68.53</v>
       </c>
       <c r="M445">
         <v>-7.0000000000000007E-2</v>
@@ -16659,10 +16663,10 @@
     </row>
     <row r="446" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A446">
-        <v>-564.91</v>
+        <v>-1792.23</v>
       </c>
       <c r="B446">
-        <v>-101.98</v>
+        <v>-68.53</v>
       </c>
       <c r="M446">
         <v>-0.05</v>
@@ -16673,10 +16677,10 @@
     </row>
     <row r="447" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A447">
-        <v>-555.24</v>
+        <v>-1793.85</v>
       </c>
       <c r="B447">
-        <v>-87.69</v>
+        <v>-68.459999999999994</v>
       </c>
       <c r="M447">
         <v>-0.06</v>
@@ -16687,10 +16691,10 @@
     </row>
     <row r="448" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A448">
-        <v>-560.07000000000005</v>
+        <v>-1793.04</v>
       </c>
       <c r="B448">
-        <v>-100.07</v>
+        <v>-68.5</v>
       </c>
       <c r="M448">
         <v>-7.0000000000000007E-2</v>
@@ -16701,10 +16705,10 @@
     </row>
     <row r="449" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A449">
-        <v>-563.29999999999995</v>
+        <v>-1793.85</v>
       </c>
       <c r="B449">
-        <v>-108.02</v>
+        <v>-68.459999999999994</v>
       </c>
       <c r="M449">
         <v>-7.0000000000000007E-2</v>
@@ -16715,10 +16719,10 @@
     </row>
     <row r="450" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A450">
-        <v>-560.07000000000005</v>
+        <v>-1793.04</v>
       </c>
       <c r="B450">
-        <v>-93.04</v>
+        <v>-68.5</v>
       </c>
       <c r="M450">
         <v>-0.05</v>
@@ -16729,10 +16733,10 @@
     </row>
     <row r="451" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A451">
-        <v>-555.24</v>
+        <v>-1794.65</v>
       </c>
       <c r="B451">
-        <v>-92.82</v>
+        <v>-68.42</v>
       </c>
       <c r="M451">
         <v>-0.06</v>
@@ -16743,10 +16747,10 @@
     </row>
     <row r="452" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A452">
-        <v>-562.49</v>
+        <v>-1795.46</v>
       </c>
       <c r="B452">
-        <v>-103.11</v>
+        <v>-68.39</v>
       </c>
       <c r="M452">
         <v>-7.0000000000000007E-2</v>
@@ -16757,10 +16761,10 @@
     </row>
     <row r="453" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A453">
-        <v>-566.52</v>
+        <v>-1794.65</v>
       </c>
       <c r="B453">
-        <v>-101.43</v>
+        <v>-68.42</v>
       </c>
       <c r="M453">
         <v>-0.06</v>
@@ -16771,10 +16775,10 @@
     </row>
     <row r="454" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A454">
-        <v>-554.42999999999995</v>
+        <v>-1794.65</v>
       </c>
       <c r="B454">
-        <v>-93.04</v>
+        <v>-68.42</v>
       </c>
       <c r="M454">
         <v>-7.0000000000000007E-2</v>
@@ -16785,10 +16789,10 @@
     </row>
     <row r="455" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A455">
-        <v>-560.07000000000005</v>
+        <v>-1797.07</v>
       </c>
       <c r="B455">
-        <v>-103.3</v>
+        <v>-68.319999999999993</v>
       </c>
       <c r="M455">
         <v>-7.0000000000000007E-2</v>
@@ -16799,10 +16803,10 @@
     </row>
     <row r="456" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A456">
-        <v>-564.91</v>
+        <v>-1799.49</v>
       </c>
       <c r="B456">
-        <v>-110.26</v>
+        <v>-68.209999999999994</v>
       </c>
       <c r="M456">
         <v>-0.05</v>
@@ -16813,10 +16817,10 @@
     </row>
     <row r="457" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A457">
-        <v>-559.27</v>
+        <v>-1797.07</v>
       </c>
       <c r="B457">
-        <v>-93.63</v>
+        <v>-68.319999999999993</v>
       </c>
       <c r="M457">
         <v>-7.0000000000000007E-2</v>
@@ -16827,10 +16831,10 @@
     </row>
     <row r="458" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A458">
-        <v>-556.85</v>
+        <v>-1797.88</v>
       </c>
       <c r="B458">
-        <v>-97.73</v>
+        <v>-68.28</v>
       </c>
       <c r="M458">
         <v>-7.0000000000000007E-2</v>
@@ -16841,10 +16845,10 @@
     </row>
     <row r="459" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A459">
-        <v>-560.07000000000005</v>
+        <v>-1797.07</v>
       </c>
       <c r="B459">
-        <v>-106.41</v>
+        <v>-68.319999999999993</v>
       </c>
       <c r="M459">
         <v>-0.05</v>
@@ -16855,10 +16859,10 @@
     </row>
     <row r="460" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A460">
-        <v>-564.91</v>
+        <v>-1797.88</v>
       </c>
       <c r="B460">
-        <v>-112.6</v>
+        <v>-68.28</v>
       </c>
       <c r="M460">
         <v>-0.06</v>
@@ -16869,10 +16873,10 @@
     </row>
     <row r="461" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A461">
-        <v>-556.85</v>
+        <v>-1801.1</v>
       </c>
       <c r="B461">
-        <v>-88.97</v>
+        <v>-68.13</v>
       </c>
       <c r="M461">
         <v>-7.0000000000000007E-2</v>
@@ -16883,10 +16887,10 @@
     </row>
     <row r="462" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A462">
-        <v>-562.49</v>
+        <v>-1801.9</v>
       </c>
       <c r="B462">
-        <v>-101.03</v>
+        <v>-68.099999999999994</v>
       </c>
       <c r="M462">
         <v>-0.05</v>
@@ -16897,10 +16901,10 @@
     </row>
     <row r="463" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A463">
-        <v>-565.71</v>
+        <v>-1802.71</v>
       </c>
       <c r="B463">
-        <v>-113.92</v>
+        <v>-68.06</v>
       </c>
       <c r="M463">
         <v>-7.0000000000000007E-2</v>
@@ -16911,10 +16915,10 @@
     </row>
     <row r="464" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A464">
-        <v>-560.07000000000005</v>
+        <v>-1804.32</v>
       </c>
       <c r="B464">
-        <v>-91.87</v>
+        <v>-67.989999999999995</v>
       </c>
       <c r="M464">
         <v>-0.08</v>
@@ -16925,10 +16929,10 @@
     </row>
     <row r="465" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A465">
-        <v>-559.27</v>
+        <v>-1803.52</v>
       </c>
       <c r="B465">
-        <v>-103.04</v>
+        <v>-68.02</v>
       </c>
       <c r="M465">
         <v>-0.05</v>
@@ -16939,10 +16943,10 @@
     </row>
     <row r="466" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A466">
-        <v>-564.91</v>
+        <v>-1802.71</v>
       </c>
       <c r="B466">
-        <v>-109.96</v>
+        <v>-68.06</v>
       </c>
       <c r="M466">
         <v>-0.06</v>
@@ -16953,10 +16957,10 @@
     </row>
     <row r="467" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A467">
-        <v>-565.71</v>
+        <v>-1801.9</v>
       </c>
       <c r="B467">
-        <v>-112.01</v>
+        <v>-68.099999999999994</v>
       </c>
       <c r="M467">
         <v>-7.0000000000000007E-2</v>
@@ -16967,10 +16971,10 @@
     </row>
     <row r="468" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A468">
-        <v>-556.85</v>
+        <v>-1805.13</v>
       </c>
       <c r="B468">
-        <v>-97.18</v>
+        <v>-67.95</v>
       </c>
       <c r="M468">
         <v>-7.0000000000000007E-2</v>
@@ -16981,10 +16985,10 @@
     </row>
     <row r="469" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A469">
-        <v>-563.29999999999995</v>
+        <v>-1805.13</v>
       </c>
       <c r="B469">
-        <v>-106.34</v>
+        <v>-67.95</v>
       </c>
       <c r="M469">
         <v>-0.06</v>
@@ -16995,10 +16999,10 @@
     </row>
     <row r="470" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A470">
-        <v>-564.91</v>
+        <v>-1805.13</v>
       </c>
       <c r="B470">
-        <v>-112.42</v>
+        <v>-67.95</v>
       </c>
       <c r="M470">
         <v>-7.0000000000000007E-2</v>
@@ -17009,10 +17013,10 @@
     </row>
     <row r="471" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A471">
-        <v>-562.49</v>
+        <v>-1805.93</v>
       </c>
       <c r="B471">
-        <v>-100.26</v>
+        <v>-67.91</v>
       </c>
       <c r="M471">
         <v>-0.08</v>
@@ -17023,10 +17027,10 @@
     </row>
     <row r="472" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A472">
-        <v>-559.27</v>
+        <v>-1805.13</v>
       </c>
       <c r="B472">
-        <v>-101.06</v>
+        <v>-67.95</v>
       </c>
       <c r="M472">
         <v>-0.06</v>
@@ -17037,10 +17041,10 @@
     </row>
     <row r="473" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A473">
-        <v>-564.91</v>
+        <v>-1805.13</v>
       </c>
       <c r="B473">
-        <v>-114.4</v>
+        <v>-67.95</v>
       </c>
       <c r="M473">
         <v>-0.08</v>
@@ -17051,10 +17055,10 @@
     </row>
     <row r="474" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A474">
-        <v>-564.91</v>
+        <v>-1806.74</v>
       </c>
       <c r="B474">
-        <v>-106.19</v>
+        <v>-67.88</v>
       </c>
       <c r="M474">
         <v>-0.08</v>
@@ -17065,10 +17069,10 @@
     </row>
     <row r="475" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A475">
-        <v>-558.46</v>
+        <v>-1807.55</v>
       </c>
       <c r="B475">
-        <v>-103</v>
+        <v>-67.84</v>
       </c>
       <c r="M475">
         <v>-0.06</v>
@@ -17079,10 +17083,10 @@
     </row>
     <row r="476" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A476">
-        <v>-564.91</v>
+        <v>-1808.35</v>
       </c>
       <c r="B476">
-        <v>-110.29</v>
+        <v>-67.8</v>
       </c>
       <c r="M476">
         <v>-7.0000000000000007E-2</v>
@@ -17093,10 +17097,10 @@
     </row>
     <row r="477" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A477">
-        <v>-567.33000000000004</v>
+        <v>-1809.16</v>
       </c>
       <c r="B477">
-        <v>-115.49</v>
+        <v>-67.77</v>
       </c>
       <c r="M477">
         <v>-0.08</v>
@@ -17107,10 +17111,10 @@
     </row>
     <row r="478" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A478">
-        <v>-561.67999999999995</v>
+        <v>-1807.55</v>
       </c>
       <c r="B478">
-        <v>-97.22</v>
+        <v>-67.84</v>
       </c>
       <c r="M478">
         <v>-0.06</v>
@@ -17121,10 +17125,10 @@
     </row>
     <row r="479" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A479">
-        <v>-562.49</v>
+        <v>-1810.77</v>
       </c>
       <c r="B479">
-        <v>-106.56</v>
+        <v>-67.69</v>
       </c>
       <c r="M479">
         <v>-7.0000000000000007E-2</v>
@@ -17135,10 +17139,10 @@
     </row>
     <row r="480" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A480">
-        <v>-566.52</v>
+        <v>-1810.77</v>
       </c>
       <c r="B480">
-        <v>-112.38</v>
+        <v>-67.69</v>
       </c>
       <c r="M480">
         <v>-0.08</v>
@@ -17149,10 +17153,10 @@
     </row>
     <row r="481" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A481">
-        <v>-565.71</v>
+        <v>-1809.96</v>
       </c>
       <c r="B481">
-        <v>-117.03</v>
+        <v>-67.73</v>
       </c>
       <c r="M481">
         <v>-0.06</v>
@@ -17163,10 +17167,10 @@
     </row>
     <row r="482" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A482">
-        <v>-560.07000000000005</v>
+        <v>-1810.77</v>
       </c>
       <c r="B482">
-        <v>-101.1</v>
+        <v>-67.69</v>
       </c>
       <c r="M482">
         <v>-7.0000000000000007E-2</v>
@@ -17177,10 +17181,10 @@
     </row>
     <row r="483" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A483">
-        <v>-564.91</v>
+        <v>-1813.19</v>
       </c>
       <c r="B483">
-        <v>-114.18</v>
+        <v>-67.58</v>
       </c>
       <c r="M483">
         <v>-0.08</v>
@@ -17191,10 +17195,10 @@
     </row>
     <row r="484" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A484">
-        <v>-567.33000000000004</v>
+        <v>-1813.19</v>
       </c>
       <c r="B484">
-        <v>-117.8</v>
+        <v>-67.58</v>
       </c>
       <c r="M484">
         <v>-0.06</v>
@@ -17205,10 +17209,10 @@
     </row>
     <row r="485" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A485">
-        <v>-562.49</v>
+        <v>-1813.19</v>
       </c>
       <c r="B485">
-        <v>-102.34</v>
+        <v>-67.58</v>
       </c>
       <c r="M485">
         <v>-7.0000000000000007E-2</v>
@@ -17219,10 +17223,10 @@
     </row>
     <row r="486" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A486">
-        <v>-560.07000000000005</v>
+        <v>-1809.96</v>
       </c>
       <c r="B486">
-        <v>-110.18</v>
+        <v>-67.73</v>
       </c>
       <c r="M486">
         <v>-0.08</v>
@@ -17233,10 +17237,10 @@
     </row>
     <row r="487" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A487">
-        <v>-566.52</v>
+        <v>-1813.19</v>
       </c>
       <c r="B487">
-        <v>-115.31</v>
+        <v>-67.58</v>
       </c>
       <c r="M487">
         <v>-7.0000000000000007E-2</v>
@@ -17247,10 +17251,10 @@
     </row>
     <row r="488" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A488">
-        <v>-566.52</v>
+        <v>-1813.19</v>
       </c>
       <c r="B488">
-        <v>-118.97</v>
+        <v>-67.58</v>
       </c>
       <c r="M488">
         <v>-7.0000000000000007E-2</v>
@@ -17261,10 +17265,10 @@
     </row>
     <row r="489" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A489">
-        <v>-561.67999999999995</v>
+        <v>-1815.6</v>
       </c>
       <c r="B489">
-        <v>-106.92</v>
+        <v>-67.47</v>
       </c>
       <c r="M489">
         <v>-0.08</v>
@@ -17275,10 +17279,10 @@
     </row>
     <row r="490" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A490">
-        <v>-564.91</v>
+        <v>-1816.41</v>
       </c>
       <c r="B490">
-        <v>-112.97</v>
+        <v>-67.44</v>
       </c>
       <c r="M490">
         <v>-0.08</v>
@@ -17289,10 +17293,10 @@
     </row>
     <row r="491" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A491">
-        <v>-564.91</v>
+        <v>-1815.6</v>
       </c>
       <c r="B491">
-        <v>-117.14</v>
+        <v>-67.47</v>
       </c>
       <c r="M491">
         <v>-7.0000000000000007E-2</v>
@@ -17303,10 +17307,10 @@
     </row>
     <row r="492" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A492">
-        <v>-564.91</v>
+        <v>-1817.22</v>
       </c>
       <c r="B492">
-        <v>-109.78</v>
+        <v>-67.400000000000006</v>
       </c>
       <c r="M492">
         <v>-7.0000000000000007E-2</v>
@@ -17317,10 +17321,10 @@
     </row>
     <row r="493" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A493">
-        <v>-566.52</v>
+        <v>-1813.99</v>
       </c>
       <c r="B493">
-        <v>-114.95</v>
+        <v>-67.55</v>
       </c>
       <c r="M493">
         <v>-0.08</v>
@@ -17331,10 +17335,10 @@
     </row>
     <row r="494" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A494">
-        <v>-564.91</v>
+        <v>-1818.02</v>
       </c>
       <c r="B494">
-        <v>-118.72</v>
+        <v>-67.36</v>
       </c>
       <c r="M494">
         <v>-7.0000000000000007E-2</v>
@@ -17345,10 +17349,10 @@
     </row>
     <row r="495" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A495">
-        <v>-565.71</v>
+        <v>-1817.22</v>
       </c>
       <c r="B495">
-        <v>-121.14</v>
+        <v>-67.400000000000006</v>
       </c>
       <c r="M495">
         <v>-0.08</v>
@@ -17359,10 +17363,10 @@
     </row>
     <row r="496" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A496">
-        <v>-561.67999999999995</v>
+        <v>-1818.02</v>
       </c>
       <c r="B496">
-        <v>-111.72</v>
+        <v>-67.36</v>
       </c>
       <c r="M496">
         <v>-0.08</v>
@@ -17373,10 +17377,10 @@
     </row>
     <row r="497" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A497">
-        <v>-564.91</v>
+        <v>-1818.02</v>
       </c>
       <c r="B497">
-        <v>-116.7</v>
+        <v>-67.36</v>
       </c>
       <c r="M497">
         <v>-7.0000000000000007E-2</v>
@@ -17387,10 +17391,10 @@
     </row>
     <row r="498" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A498">
-        <v>-566.52</v>
+        <v>-1817.22</v>
       </c>
       <c r="B498">
-        <v>-119.56</v>
+        <v>-67.400000000000006</v>
       </c>
       <c r="M498">
         <v>-0.08</v>
@@ -17401,10 +17405,10 @@
     </row>
     <row r="499" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A499">
-        <v>-567.33000000000004</v>
+        <v>-1818.02</v>
       </c>
       <c r="B499">
-        <v>-109.41</v>
+        <v>-67.36</v>
       </c>
       <c r="M499">
         <v>-0.08</v>
@@ -17415,10 +17419,10 @@
     </row>
     <row r="500" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A500">
-        <v>-565.71</v>
+        <v>-1818.83</v>
       </c>
       <c r="B500">
-        <v>-114.58</v>
+        <v>-67.33</v>
       </c>
       <c r="M500">
         <v>-7.0000000000000007E-2</v>
@@ -17429,10 +17433,10 @@
     </row>
     <row r="501" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A501">
-        <v>-565.71</v>
+        <v>-1817.22</v>
       </c>
       <c r="B501">
-        <v>-118.39</v>
+        <v>-67.400000000000006</v>
       </c>
       <c r="M501">
         <v>-0.08</v>
@@ -17443,10 +17447,10 @@
     </row>
     <row r="502" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A502">
-        <v>-567.33000000000004</v>
+        <v>-1818.02</v>
       </c>
       <c r="B502">
-        <v>-121.06</v>
+        <v>-67.36</v>
       </c>
       <c r="M502">
         <v>-0.08</v>
@@ -17457,10 +17461,10 @@
     </row>
     <row r="503" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A503">
-        <v>-566.52</v>
+        <v>-1820.44</v>
       </c>
       <c r="B503">
-        <v>-118.42</v>
+        <v>-67.25</v>
       </c>
       <c r="M503">
         <v>-0.08</v>
@@ -17471,10 +17475,10 @@
     </row>
     <row r="504" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A504">
-        <v>-568.13</v>
+        <v>-1818.83</v>
       </c>
       <c r="B504">
-        <v>-120.66</v>
+        <v>-67.33</v>
       </c>
       <c r="M504">
         <v>-0.08</v>
@@ -17485,10 +17489,10 @@
     </row>
     <row r="505" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A505">
-        <v>-566.52</v>
+        <v>-1818.02</v>
       </c>
       <c r="B505">
-        <v>-122.49</v>
+        <v>-67.36</v>
       </c>
       <c r="M505">
         <v>-0.08</v>
@@ -17499,10 +17503,10 @@
     </row>
     <row r="506" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A506">
-        <v>-565.71</v>
+        <v>-1819.63</v>
       </c>
       <c r="B506">
-        <v>-115.38</v>
+        <v>-67.290000000000006</v>
       </c>
       <c r="M506">
         <v>-7.0000000000000007E-2</v>
@@ -17513,10 +17517,10 @@
     </row>
     <row r="507" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A507">
-        <v>-567.33000000000004</v>
+        <v>-1818.83</v>
       </c>
       <c r="B507">
-        <v>-119.01</v>
+        <v>-67.33</v>
       </c>
       <c r="M507">
         <v>-0.08</v>
@@ -17527,10 +17531,10 @@
     </row>
     <row r="508" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A508">
-        <v>-568.94000000000005</v>
+        <v>-1823.66</v>
       </c>
       <c r="B508">
-        <v>-121.32</v>
+        <v>-67.11</v>
       </c>
       <c r="M508">
         <v>-0.08</v>
@@ -17541,10 +17545,10 @@
     </row>
     <row r="509" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A509">
-        <v>-567.33000000000004</v>
+        <v>-1819.63</v>
       </c>
       <c r="B509">
-        <v>-122.56</v>
+        <v>-67.290000000000006</v>
       </c>
       <c r="M509">
         <v>-0.08</v>
@@ -17555,10 +17559,10 @@
     </row>
     <row r="510" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A510">
-        <v>-567.33000000000004</v>
+        <v>-1819.63</v>
       </c>
       <c r="B510">
-        <v>-118.86</v>
+        <v>-67.290000000000006</v>
       </c>
       <c r="M510">
         <v>-0.08</v>
@@ -17569,10 +17573,10 @@
     </row>
     <row r="511" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A511">
-        <v>-566.52</v>
+        <v>-1820.44</v>
       </c>
       <c r="B511">
-        <v>-121.36</v>
+        <v>-67.25</v>
       </c>
       <c r="M511">
         <v>-0.08</v>
@@ -17583,10 +17587,10 @@
     </row>
     <row r="512" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A512">
-        <v>-565.71</v>
+        <v>-1820.44</v>
       </c>
       <c r="B512">
-        <v>-122.93</v>
+        <v>-67.25</v>
       </c>
       <c r="M512">
         <v>-0.08</v>
